--- a/data/Test_case.xlsx
+++ b/data/Test_case.xlsx
@@ -29,6 +29,13 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -50,14 +57,86 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -72,78 +151,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -158,14 +166,6 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -180,19 +180,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -204,49 +330,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,109 +354,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,21 +394,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,6 +446,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -479,10 +479,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -491,133 +491,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,7 +1058,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:M5"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1174,7 +1174,11 @@
           <t>{"loginType":"phone","phonePrefix":"86","phoneNo":"17666131420","password":"a123456"}</t>
         </is>
       </c>
-      <c r="H2" s="1" t="n"/>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>write_token</t>
+        </is>
+      </c>
       <c r="I2" s="0" t="inlineStr">
         <is>
           <t>{"content-type":"application/json;charset=UTF-8"}</t>
@@ -1195,7 +1199,7 @@
       </c>
       <c r="M2" s="0" t="inlineStr">
         <is>
-          <t>{"code": "200", "success": true, "data": {"customer": {"id": "28", "code": "YH00000028", "orgName": "\u5411\u98d2\u98d2", "countryId": "1", "countryName": "\u4e2d\u56fd\u5927\u9646", "provinceId": "650000000000", "provinceName": "\u65b0\u7586\u7ef4\u543e\u5c14\u81ea\u6cbb\u533a", "cityId": "650200000000", "cityName": "\u514b\u62c9\u739b\u4f9d\u5e02", "documentUrl": "https://oss-img-fat.yohitrip.com/upload/2021-01-13/ba0436866857413fac8002071dfc5d51.jpeg", "note": null, "accountState": "ENABLE", "approvedBy": "admin", "approvedState": "APPROVED", "approvedComment": "\u6d4b\u8bd5\u4f7f\u7528", "deleted": false, "addressDetails": null, "uid": "282"}, "token": "yohitripeyJhbGciOiJIUzUxMiJ9.eyJzYWx0IjoiMjdiMTU4ODMtN2QwZC00MzlkLWE2YTItZmJmYjQ1NzQwMzBmIiwiY3JlYXRlZCI6MTYyMDYzMzUzMzM4MywiaWQiOjI4MiwiZXhwIjoxNjIxMjM4MzMzfQ.oSsXqkbzQu27ZpApP82J50WNR9uVjSxvfn-cPlfHKieLOIVDUDAM9SHU75ZmMttkrZnWiOBO9mzKZOty6855Uw"}, "msg": "\u6210\u529f"}</t>
+          <t>{"code": "200", "success": true, "data": {"customer": {"id": "28", "code": "YH00000028", "orgName": "\u5411\u98d2\u98d2", "countryId": "1", "countryName": "\u4e2d\u56fd\u5927\u9646", "provinceId": "650000000000", "provinceName": "\u65b0\u7586\u7ef4\u543e\u5c14\u81ea\u6cbb\u533a", "cityId": "650200000000", "cityName": "\u514b\u62c9\u739b\u4f9d\u5e02", "documentUrl": "https://oss-img-fat.yohitrip.com/upload/2021-01-13/ba0436866857413fac8002071dfc5d51.jpeg", "note": null, "accountState": "ENABLE", "approvedBy": "admin", "approvedState": "APPROVED", "approvedComment": "\u6d4b\u8bd5\u4f7f\u7528", "deleted": false, "addressDetails": null, "uid": "282"}, "token": "yohitripeyJhbGciOiJIUzUxMiJ9.eyJzYWx0IjoiMGYwYWE0MDktNjcwMC00N2I4LWFkMDYtZDJiMDdkYWQwZmMwIiwiY3JlYXRlZCI6MTYyMjEwNDEzNjU2NSwiaWQiOjI4MiwiZXhwIjoxNjIyNzA4OTM2fQ.roX1ZSOLCIg-51FDiga0dB2gFbRP2f5xDchTzDFX41cxc4V4xFUGJ-TKr5AphYZO1FUGWU3Pc8FhwiAfK8Tu4w"}, "msg": "\u6210\u529f"}</t>
         </is>
       </c>
     </row>
@@ -1252,7 +1256,7 @@
       </c>
       <c r="M3" s="0" t="inlineStr">
         <is>
-          <t>{"code": "200", "success": true, "data": "https://oss-file-fat.yohitrip.com/guide_itinerary_20210510155853685984.pdf", "msg": "\u6210\u529f"}</t>
+          <t>{"code": "200", "success": true, "data": "https://oss-file-fat.yohitrip.com/guide_itinerary_20210527162856976764.pdf", "msg": "\u6210\u529f"}</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1368,7 @@
           <t>pass</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="M5" s="0" t="inlineStr">
         <is>
           <t>{"code": "200", "success": true, "data": {"total": "14", "pageNo": "1", "pageSize": "10", "totalPage": "2", "records": [{"cityId": "40519", "cityName": "\u540d\u53e4\u5c4b", "cityOperationStatus": true, "twiceOperationStatus": true, "dailyCharterOperationStatus": true, "oncePriceOperationStatus": true}, {"cityId": "40526", "cityName": "\u5927\u962a", "cityOperationStatus": true, "twiceOperationStatus": true, "dailyCharterOperationStatus": true, "oncePriceOperationStatus": true}, {"cityId": "1355", "cityName": "\u4f26\u6566", "cityOperationStatus": true, "twiceOperationStatus": true, "dailyCharterOperationStatus": true, "oncePriceOperationStatus": true}, {"cityId": "2163", "cityName": "\u8d39\u9a6c\u6069\u5c9b", "cityOperationStatus": true, "twiceOperationStatus": false, "dailyCharterOperationStatus": true, "oncePriceOperationStatus": true}, {"cityId": "3791", "cityName": "\u5df4\u9ece", "cityOperationStatus": true, "twiceOperationStatus": true, "dailyCharterOperationStatus": true, "oncePriceOperationStatus": true}, {"cityId": "4806", "cityName": "\u56fe\u745e\u8499\u6208", "cityOperationStatus": true, "twiceOperationStatus": false, "dailyCharterOperationStatus": true, "oncePriceOperationStatus": false}, {"cityId": "265", "cityName": "\u7c73\u5170", "cityOperationStatus": true, "twiceOperationStatus": true, "dailyCharterOperationStatus": true, "oncePriceOperationStatus": true}, {"cityId": "264", "cityName": "\u4f5b\u7f57\u4f26\u8428", "cityOperationStatus": true, "twiceOperationStatus": false, "dailyCharterOperationStatus": true, "oncePriceOperationStatus": false}, {"cityId": "8017", "cityName": "\u5e03\u8fbe\u4f69\u65af", "cityOperationStatus": true, "twiceOperationStatus": true, "dailyCharterOperationStatus": true, "oncePriceOperationStatus": true}, {"cityId": "5394", "cityName": "\u7ef4\u4e5f\u7eb3", "cityOperationStatus": true, "twiceOperationStatus": true, "dailyCharterOperationStatus": true, "oncePriceOperationStatus": true}]}, "msg": "\u6210\u529f"}</t>
         </is>
@@ -1375,14 +1379,14 @@
     <dataValidation sqref="C1" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="custom">
       <formula1>"yes"</formula1>
     </dataValidation>
-    <dataValidation sqref="H2 H3 H4 H5" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"write_token,with_token"</formula1>
-    </dataValidation>
     <dataValidation sqref="C2 C3 C4 C5" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"yes,no"</formula1>
     </dataValidation>
     <dataValidation sqref="J2 J3 J4 J5" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"code,msg,json"</formula1>
+    </dataValidation>
+    <dataValidation sqref="H2 H3 H4 H5" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"write_token,with_token"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1533,14 +1537,14 @@
     <dataValidation sqref="C1" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="custom">
       <formula1>"yes"</formula1>
     </dataValidation>
-    <dataValidation sqref="H2" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"write_token,with_token"</formula1>
-    </dataValidation>
     <dataValidation sqref="C2" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"yes,no"</formula1>
     </dataValidation>
     <dataValidation sqref="J2" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"code,msg,json"</formula1>
+    </dataValidation>
+    <dataValidation sqref="H2" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"write_token,with_token"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1681,15 +1685,15 @@
     <dataValidation sqref="C1" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="custom">
       <formula1>"yes"</formula1>
     </dataValidation>
-    <dataValidation sqref="H2" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"write_token,with_token"</formula1>
-    </dataValidation>
     <dataValidation sqref="C2" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"yes,no"</formula1>
     </dataValidation>
     <dataValidation sqref="J2" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"code,msg,json"</formula1>
     </dataValidation>
+    <dataValidation sqref="H2" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"write_token,with_token"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/data/Test_case.xlsx
+++ b/data/Test_case.xlsx
@@ -29,7 +29,14 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -43,6 +50,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -50,14 +58,22 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -75,14 +91,6 @@
       <color rgb="FF800080"/>
       <sz val="11"/>
       <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -127,8 +135,14 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -136,7 +150,7 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -151,25 +165,11 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -180,187 +180,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,15 +371,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -418,6 +409,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,10 +479,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -491,137 +491,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -633,13 +633,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1055,13 +1058,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col width="11" customWidth="1" style="3" min="1" max="1"/>
     <col width="12.5" customWidth="1" style="4" min="2" max="2"/>
@@ -1072,6 +1075,7 @@
     <col width="22.25" customWidth="1" style="3" min="7" max="8"/>
     <col width="29.5" customWidth="1" style="3" min="9" max="9"/>
     <col width="8.5" customWidth="1" style="3" min="10" max="10"/>
+    <col width="13.25" customWidth="1" style="3" min="11" max="11"/>
     <col width="10.25" customWidth="1" style="3" min="12" max="12"/>
   </cols>
   <sheetData>
@@ -1081,7 +1085,7 @@
           <t>用例编号</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>模块</t>
         </is>
@@ -1148,9 +1152,9 @@
           <t>case_001</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>login</t>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>正确账号密码登录</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
@@ -1186,11 +1190,13 @@
       </c>
       <c r="J2" s="0" t="inlineStr">
         <is>
-          <t>code</t>
-        </is>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>200</v>
+          <t>msg</t>
+        </is>
+      </c>
+      <c r="K2" s="0" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
       </c>
       <c r="L2" s="0" t="inlineStr">
         <is>
@@ -1199,7 +1205,7 @@
       </c>
       <c r="M2" s="0" t="inlineStr">
         <is>
-          <t>{"code": "200", "success": true, "data": {"customer": {"id": "28", "code": "YH00000028", "orgName": "\u5411\u98d2\u98d2", "countryId": "1", "countryName": "\u4e2d\u56fd\u5927\u9646", "provinceId": "650000000000", "provinceName": "\u65b0\u7586\u7ef4\u543e\u5c14\u81ea\u6cbb\u533a", "cityId": "650200000000", "cityName": "\u514b\u62c9\u739b\u4f9d\u5e02", "documentUrl": "https://oss-img-fat.yohitrip.com/upload/2021-01-13/ba0436866857413fac8002071dfc5d51.jpeg", "note": null, "accountState": "ENABLE", "approvedBy": "admin", "approvedState": "APPROVED", "approvedComment": "\u6d4b\u8bd5\u4f7f\u7528", "deleted": false, "addressDetails": null, "uid": "282"}, "token": "yohitripeyJhbGciOiJIUzUxMiJ9.eyJzYWx0IjoiMGYwYWE0MDktNjcwMC00N2I4LWFkMDYtZDJiMDdkYWQwZmMwIiwiY3JlYXRlZCI6MTYyMjEwNDEzNjU2NSwiaWQiOjI4MiwiZXhwIjoxNjIyNzA4OTM2fQ.roX1ZSOLCIg-51FDiga0dB2gFbRP2f5xDchTzDFX41cxc4V4xFUGJ-TKr5AphYZO1FUGWU3Pc8FhwiAfK8Tu4w"}, "msg": "\u6210\u529f"}</t>
+          <t>{"code": "200", "success": true, "data": {"customer": {"id": "28", "code": "YH00000028", "orgName": "\u5411\u98d2\u98d2", "countryId": "1", "countryName": "\u4e2d\u56fd\u5927\u9646", "provinceId": "650000000000", "provinceName": "\u65b0\u7586\u7ef4\u543e\u5c14\u81ea\u6cbb\u533a", "cityId": "650200000000", "cityName": "\u514b\u62c9\u739b\u4f9d\u5e02", "documentUrl": "https://oss-img-fat.yohitrip.com/upload/2021-01-13/ba0436866857413fac8002071dfc5d51.jpeg", "note": null, "accountState": "ENABLE", "approvedBy": "admin", "approvedState": "APPROVED", "approvedComment": "\u6d4b\u8bd5\u4f7f\u7528", "deleted": false, "addressDetails": null, "uid": "282"}, "token": "yohitripeyJhbGciOiJIUzUxMiJ9.eyJzYWx0IjoiNjI0MmNhMzYtMTJlOS00MzRjLWEwNDUtZmU3NGYzMjNiNTNhIiwiY3JlYXRlZCI6MTYyMjE4NTU2Mjg3OCwiaWQiOjI4MiwiZXhwIjoxNjIyNzkwMzYyfQ.8kpmcInT1xtn2wDkWJpIxnB5Xs8oTAUDj1qEcaKzPfaBAucHgayLvXKxZ0FJqtWV2p0ACZj9uo7IsAB1qn6rYw"}, "msg": "\u6210\u529f"}</t>
         </is>
       </c>
     </row>
@@ -1209,9 +1215,9 @@
           <t>case_002</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>updata</t>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>正确账号，错误密码登录</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
@@ -1219,35 +1225,41 @@
           <t>yes</t>
         </is>
       </c>
-      <c r="D3" s="5" t="n"/>
+      <c r="D3" s="1" t="n"/>
       <c r="E3" s="0" t="inlineStr">
         <is>
-          <t>client/file/upload/itinerary</t>
+          <t>client/auth/login/username</t>
         </is>
       </c>
       <c r="F3" s="0" t="inlineStr">
         <is>
-          <t>updata_post</t>
-        </is>
-      </c>
-      <c r="G3" s="6" t="inlineStr">
-        <is>
-          <t>{'file':("python.pdf",open("D:\python.pdf",'rb'),"application/pdf")}</t>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>{"loginType":"phone","phonePrefix":"86","phoneNo":"17666131420","password":"a12345"}</t>
         </is>
       </c>
       <c r="H3" s="1" t="inlineStr">
         <is>
-          <t>with_token</t>
-        </is>
-      </c>
-      <c r="I3" s="0" t="n"/>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>{"content-type":"application/json;charset=UTF-8"}</t>
+        </is>
+      </c>
       <c r="J3" s="0" t="inlineStr">
         <is>
-          <t>code</t>
-        </is>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>200</v>
+          <t>msg</t>
+        </is>
+      </c>
+      <c r="K3" s="0" t="inlineStr">
+        <is>
+          <t>用户名或密码不正确</t>
+        </is>
       </c>
       <c r="L3" s="0" t="inlineStr">
         <is>
@@ -1256,7 +1268,7 @@
       </c>
       <c r="M3" s="0" t="inlineStr">
         <is>
-          <t>{"code": "200", "success": true, "data": "https://oss-file-fat.yohitrip.com/guide_itinerary_20210527162856976764.pdf", "msg": "\u6210\u529f"}</t>
+          <t>{"code": "400", "success": false, "data": null, "msg": "\u7528\u6237\u540d\u6216\u5bc6\u7801\u4e0d\u6b63\u786e"}</t>
         </is>
       </c>
     </row>
@@ -1266,9 +1278,9 @@
           <t>case_003</t>
         </is>
       </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>定位可操作城市</t>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>错误账号登录</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
@@ -1279,32 +1291,38 @@
       <c r="D4" s="1" t="n"/>
       <c r="E4" s="0" t="inlineStr">
         <is>
-          <t>client/open-city/operation/cities</t>
+          <t>client/auth/login/username</t>
         </is>
       </c>
       <c r="F4" s="0" t="inlineStr">
         <is>
-          <t>get</t>
+          <t>post</t>
         </is>
       </c>
       <c r="G4" s="0" t="inlineStr">
         <is>
-          <t>{"pageSize":100,"pageNo":1,"type":"DAILY_CHARTER"}</t>
+          <t>{"loginType":"phone","phonePrefix":"86","phoneNo":"17666131421","password":"a12345"}</t>
         </is>
       </c>
       <c r="H4" s="1" t="inlineStr">
         <is>
-          <t>with_token</t>
-        </is>
-      </c>
-      <c r="I4" s="0" t="n"/>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>{"content-type":"application/json;charset=UTF-8"}</t>
+        </is>
+      </c>
       <c r="J4" s="0" t="inlineStr">
         <is>
-          <t>code</t>
-        </is>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>200</v>
+          <t>msg</t>
+        </is>
+      </c>
+      <c r="K4" s="0" t="inlineStr">
+        <is>
+          <t>该账号或手机号未注册，请检查后重新填写</t>
+        </is>
       </c>
       <c r="L4" s="0" t="inlineStr">
         <is>
@@ -1313,7 +1331,7 @@
       </c>
       <c r="M4" s="0" t="inlineStr">
         <is>
-          <t>{"code": "200", "success": true, "data": {"total": "14", "pageNo": "1", "pageSize": "10", "totalPage": "2", "records": [{"cityId": "40519", "cityName": "\u540d\u53e4\u5c4b", "cityOperationStatus": true, "twiceOperationStatus": true, "dailyCharterOperationStatus": true, "oncePriceOperationStatus": true}, {"cityId": "40526", "cityName": "\u5927\u962a", "cityOperationStatus": true, "twiceOperationStatus": true, "dailyCharterOperationStatus": true, "oncePriceOperationStatus": true}, {"cityId": "1355", "cityName": "\u4f26\u6566", "cityOperationStatus": true, "twiceOperationStatus": true, "dailyCharterOperationStatus": true, "oncePriceOperationStatus": true}, {"cityId": "2163", "cityName": "\u8d39\u9a6c\u6069\u5c9b", "cityOperationStatus": true, "twiceOperationStatus": false, "dailyCharterOperationStatus": true, "oncePriceOperationStatus": true}, {"cityId": "3791", "cityName": "\u5df4\u9ece", "cityOperationStatus": true, "twiceOperationStatus": true, "dailyCharterOperationStatus": true, "oncePriceOperationStatus": true}, {"cityId": "4806", "cityName": "\u56fe\u745e\u8499\u6208", "cityOperationStatus": true, "twiceOperationStatus": false, "dailyCharterOperationStatus": true, "oncePriceOperationStatus": false}, {"cityId": "265", "cityName": "\u7c73\u5170", "cityOperationStatus": true, "twiceOperationStatus": true, "dailyCharterOperationStatus": true, "oncePriceOperationStatus": true}, {"cityId": "264", "cityName": "\u4f5b\u7f57\u4f26\u8428", "cityOperationStatus": true, "twiceOperationStatus": false, "dailyCharterOperationStatus": true, "oncePriceOperationStatus": false}, {"cityId": "8017", "cityName": "\u5e03\u8fbe\u4f69\u65af", "cityOperationStatus": true, "twiceOperationStatus": true, "dailyCharterOperationStatus": true, "oncePriceOperationStatus": true}, {"cityId": "5394", "cityName": "\u7ef4\u4e5f\u7eb3", "cityOperationStatus": true, "twiceOperationStatus": true, "dailyCharterOperationStatus": true, "oncePriceOperationStatus": true}]}, "msg": "\u6210\u529f"}</t>
+          <t>{"code": "400", "success": false, "data": null, "msg": "\u8be5\u8d26\u53f7\u6216\u624b\u673a\u53f7\u672a\u6ce8\u518c\uff0c\u8bf7\u68c0\u67e5\u540e\u91cd\u65b0\u586b\u5199"}</t>
         </is>
       </c>
     </row>
@@ -1323,52 +1341,353 @@
           <t>case_004</t>
         </is>
       </c>
-      <c r="B5" s="0" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>注册司导账号登录</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="n"/>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>client/auth/login/username</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t>{"loginType":"phone","phonePrefix":"86","phoneNo":"17666131400","password":"a12345"}</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="inlineStr">
+        <is>
+          <t>{"content-type":"application/json;charset=UTF-8"}</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="inlineStr">
+        <is>
+          <t>msg</t>
+        </is>
+      </c>
+      <c r="K5" s="0" t="inlineStr">
+        <is>
+          <t>该账号或手机号为司导用户，请在APP登录。</t>
+        </is>
+      </c>
+      <c r="L5" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="M5" s="0" t="inlineStr">
+        <is>
+          <t>{"code": "400", "success": false, "data": null, "msg": "\u8be5\u8d26\u53f7\u6216\u624b\u673a\u53f7\u4e3a\u53f8\u5bfc\u7528\u6237\uff0c\u8bf7\u5728APP\u767b\u5f55\u3002"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="50" customHeight="1" s="3">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>case_005</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>未传账号登录</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="n"/>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>client/auth/login/username</t>
+        </is>
+      </c>
+      <c r="F6" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="G6" s="0" t="inlineStr">
+        <is>
+          <t>{"loginType":"phone","phonePrefix":"86","password":"a12345"}</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>{"content-type":"application/json;charset=UTF-8"}</t>
+        </is>
+      </c>
+      <c r="J6" s="0" t="inlineStr">
+        <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>400</v>
+      </c>
+      <c r="L6" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="M6" s="0" t="inlineStr">
+        <is>
+          <t>{"code": "400", "success": false, "data": null, "msg": "Error converting request body"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="50" customHeight="1" s="3">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>case_006</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>未传密码登录</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D7" s="1" t="n"/>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>client/auth/login/username</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>{"loginType":"phone","phonePrefix":"86","phoneNo":"17666131421"}</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>{"content-type":"application/json;charset=UTF-8"}</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t>msg</t>
+        </is>
+      </c>
+      <c r="K7" s="0" t="inlineStr">
+        <is>
+          <t>password:请输入密码</t>
+        </is>
+      </c>
+      <c r="L7" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="M7" s="0" t="inlineStr">
+        <is>
+          <t>{"code": "400", "success": false, "data": null, "msg": "password:\u8bf7\u8f93\u5165\u5bc6\u7801"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="50" customHeight="1" s="3">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>case_007</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>updata</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n"/>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>client/file/upload/itinerary</t>
+        </is>
+      </c>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
+          <t>updata_post</t>
+        </is>
+      </c>
+      <c r="G8" s="6" t="inlineStr">
+        <is>
+          <t>{'file':("python.pdf",open("D:\python.pdf",'rb'),"application/pdf")}</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>with_token</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="n"/>
+      <c r="J8" s="0" t="inlineStr">
+        <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="L8" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="M8" s="0" t="inlineStr">
+        <is>
+          <t>{"code": "200", "success": true, "data": "https://oss-file-fat.yohitrip.com/guide_itinerary_20210528150604483269.pdf", "msg": "\u6210\u529f"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="50" customHeight="1" s="3">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>case_008</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>定位可操作城市</t>
         </is>
       </c>
-      <c r="C5" s="0" t="inlineStr">
+      <c r="C9" s="0" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="D5" s="5" t="inlineStr">
+      <c r="D9" s="1" t="n"/>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>client/open-city/operation/cities</t>
+        </is>
+      </c>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="G9" s="0" t="inlineStr">
+        <is>
+          <t>{"pageSize":100,"pageNo":1,"type":"DAILY_CHARTER"}</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr">
+        <is>
+          <t>with_token</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="n"/>
+      <c r="J9" s="0" t="inlineStr">
+        <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="L9" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="M9" s="0" t="inlineStr">
+        <is>
+          <t>{"code": "200", "success": true, "data": {"total": "14", "pageNo": "1", "pageSize": "10", "totalPage": "2", "records": [{"cityId": "40519", "cityName": "\u540d\u53e4\u5c4b", "cityOperationStatus": true, "twiceOperationStatus": true, "dailyCharterOperationStatus": true, "oncePriceOperationStatus": true}, {"cityId": "40526", "cityName": "\u5927\u962a", "cityOperationStatus": true, "twiceOperationStatus": true, "dailyCharterOperationStatus": true, "oncePriceOperationStatus": true}, {"cityId": "1355", "cityName": "\u4f26\u6566", "cityOperationStatus": true, "twiceOperationStatus": true, "dailyCharterOperationStatus": true, "oncePriceOperationStatus": true}, {"cityId": "2163", "cityName": "\u8d39\u9a6c\u6069\u5c9b", "cityOperationStatus": true, "twiceOperationStatus": false, "dailyCharterOperationStatus": true, "oncePriceOperationStatus": true}, {"cityId": "3791", "cityName": "\u5df4\u9ece", "cityOperationStatus": true, "twiceOperationStatus": true, "dailyCharterOperationStatus": true, "oncePriceOperationStatus": true}, {"cityId": "4806", "cityName": "\u56fe\u745e\u8499\u6208", "cityOperationStatus": true, "twiceOperationStatus": false, "dailyCharterOperationStatus": true, "oncePriceOperationStatus": false}, {"cityId": "265", "cityName": "\u7c73\u5170", "cityOperationStatus": true, "twiceOperationStatus": true, "dailyCharterOperationStatus": true, "oncePriceOperationStatus": true}, {"cityId": "264", "cityName": "\u4f5b\u7f57\u4f26\u8428", "cityOperationStatus": true, "twiceOperationStatus": false, "dailyCharterOperationStatus": true, "oncePriceOperationStatus": false}, {"cityId": "8017", "cityName": "\u5e03\u8fbe\u4f69\u65af", "cityOperationStatus": true, "twiceOperationStatus": true, "dailyCharterOperationStatus": true, "oncePriceOperationStatus": true}, {"cityId": "5394", "cityName": "\u7ef4\u4e5f\u7eb3", "cityOperationStatus": true, "twiceOperationStatus": true, "dailyCharterOperationStatus": true, "oncePriceOperationStatus": true}]}, "msg": "\u6210\u529f"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="50" customHeight="1" s="3">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>case_009</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>定位可操作城市</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr">
         <is>
           <t>case_001&gt;data.token,case_001&gt;data.customer.id</t>
         </is>
       </c>
-      <c r="E5" s="0" t="inlineStr">
+      <c r="E10" s="0" t="inlineStr">
         <is>
           <t>client/open-city/operation/cities</t>
         </is>
       </c>
-      <c r="F5" s="0" t="inlineStr">
+      <c r="F10" s="0" t="inlineStr">
         <is>
           <t>get</t>
         </is>
       </c>
-      <c r="G5" s="0" t="n"/>
-      <c r="H5" s="1" t="inlineStr">
+      <c r="G10" s="0" t="n"/>
+      <c r="H10" s="1" t="inlineStr">
         <is>
           <t>with_token</t>
         </is>
       </c>
-      <c r="I5" s="0" t="n"/>
-      <c r="J5" s="0" t="inlineStr">
+      <c r="I10" s="0" t="n"/>
+      <c r="J10" s="0" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K10" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="L5" s="0" t="inlineStr">
+      <c r="L10" s="0" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
       </c>
-      <c r="M5" s="0" t="inlineStr">
+      <c r="M10" s="0" t="inlineStr">
         <is>
           <t>{"code": "200", "success": true, "data": {"total": "14", "pageNo": "1", "pageSize": "10", "totalPage": "2", "records": [{"cityId": "40519", "cityName": "\u540d\u53e4\u5c4b", "cityOperationStatus": true, "twiceOperationStatus": true, "dailyCharterOperationStatus": true, "oncePriceOperationStatus": true}, {"cityId": "40526", "cityName": "\u5927\u962a", "cityOperationStatus": true, "twiceOperationStatus": true, "dailyCharterOperationStatus": true, "oncePriceOperationStatus": true}, {"cityId": "1355", "cityName": "\u4f26\u6566", "cityOperationStatus": true, "twiceOperationStatus": true, "dailyCharterOperationStatus": true, "oncePriceOperationStatus": true}, {"cityId": "2163", "cityName": "\u8d39\u9a6c\u6069\u5c9b", "cityOperationStatus": true, "twiceOperationStatus": false, "dailyCharterOperationStatus": true, "oncePriceOperationStatus": true}, {"cityId": "3791", "cityName": "\u5df4\u9ece", "cityOperationStatus": true, "twiceOperationStatus": true, "dailyCharterOperationStatus": true, "oncePriceOperationStatus": true}, {"cityId": "4806", "cityName": "\u56fe\u745e\u8499\u6208", "cityOperationStatus": true, "twiceOperationStatus": false, "dailyCharterOperationStatus": true, "oncePriceOperationStatus": false}, {"cityId": "265", "cityName": "\u7c73\u5170", "cityOperationStatus": true, "twiceOperationStatus": true, "dailyCharterOperationStatus": true, "oncePriceOperationStatus": true}, {"cityId": "264", "cityName": "\u4f5b\u7f57\u4f26\u8428", "cityOperationStatus": true, "twiceOperationStatus": false, "dailyCharterOperationStatus": true, "oncePriceOperationStatus": false}, {"cityId": "8017", "cityName": "\u5e03\u8fbe\u4f69\u65af", "cityOperationStatus": true, "twiceOperationStatus": true, "dailyCharterOperationStatus": true, "oncePriceOperationStatus": true}, {"cityId": "5394", "cityName": "\u7ef4\u4e5f\u7eb3", "cityOperationStatus": true, "twiceOperationStatus": true, "dailyCharterOperationStatus": true, "oncePriceOperationStatus": true}]}, "msg": "\u6210\u529f"}</t>
         </is>
@@ -1379,14 +1698,14 @@
     <dataValidation sqref="C1" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="custom">
       <formula1>"yes"</formula1>
     </dataValidation>
-    <dataValidation sqref="C2 C3 C4 C5" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="C2 C3 C4 C5 C6 C7 C8 C9 C10" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"yes,no"</formula1>
     </dataValidation>
-    <dataValidation sqref="J2 J3 J4 J5" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="H2 H3 H4 H5 H6 H7 H8 H9 H10" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"write_token,with_token,None"</formula1>
+    </dataValidation>
+    <dataValidation sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"code,msg,json"</formula1>
-    </dataValidation>
-    <dataValidation sqref="H2 H3 H4 H5" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"write_token,with_token"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1540,11 +1859,11 @@
     <dataValidation sqref="C2" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"yes,no"</formula1>
     </dataValidation>
+    <dataValidation sqref="H2" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"write_token,with_token"</formula1>
+    </dataValidation>
     <dataValidation sqref="J2" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"code,msg,json"</formula1>
-    </dataValidation>
-    <dataValidation sqref="H2" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"write_token,with_token"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1688,11 +2007,11 @@
     <dataValidation sqref="C2" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"yes,no"</formula1>
     </dataValidation>
+    <dataValidation sqref="H2" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"write_token,with_token"</formula1>
+    </dataValidation>
     <dataValidation sqref="J2" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"code,msg,json"</formula1>
-    </dataValidation>
-    <dataValidation sqref="H2" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"write_token,with_token"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Test_case.xlsx
+++ b/data/Test_case.xlsx
@@ -28,8 +28,23 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -42,22 +57,14 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -72,7 +79,69 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -95,80 +164,11 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <b val="1"/>
       <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -179,12 +179,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -197,25 +251,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,67 +341,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,67 +353,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,17 +412,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -438,20 +441,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,10 +478,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -490,133 +490,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1062,8 +1062,8 @@
   </sheetPr>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1074,7 +1074,7 @@
     <col width="25" customWidth="1" style="2" min="4" max="4"/>
     <col width="29.25" customWidth="1" style="2" min="5" max="5"/>
     <col width="12.375" customWidth="1" style="2" min="6" max="6"/>
-    <col width="139.25" customWidth="1" style="2" min="7" max="7"/>
+    <col width="98.75" customWidth="1" style="2" min="7" max="7"/>
     <col width="22.25" customWidth="1" style="2" min="8" max="8"/>
     <col width="29.5" customWidth="1" style="2" min="9" max="9"/>
     <col width="8.5" customWidth="1" style="2" min="10" max="10"/>
@@ -1150,7 +1150,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="50" customHeight="1" s="2">
+    <row r="2" ht="129" customHeight="1" s="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
           <t>case_001</t>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="L2" s="0" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>pass</t>
         </is>
       </c>
       <c r="M2" s="8" t="inlineStr">
@@ -1236,7 +1236,7 @@
             "provinceName": "安徽省",
             "uid": "262"
         },
-        "token": "yohitripeyJhbGciOiJIUzUxMiJ9.eyJzYWx0IjoiZTZkOGQ5NWEtOGEzNC00ZDhhLWFkMDEtMjVjZmE1NDNlOGQwIiwiY3JlYXRlZCI6MTY0MDc2NDUyMzk3MSwiaWQiOjI2MiwiZXhwIjoxNjQxMzY5MzIzfQ.58M4r1QXkpsMJT2vPjDLSWuVAvmaiDDl_490kROWC5Fa-y6d3YQtglhDc3e-XpG3KAJlzdWsQtK-qDMqhLtCOw"
+        "token": "yohitripeyJhbGciOiJIUzUxMiJ9.eyJzYWx0IjoiM2VlNzZkYjMtOWVkYS00MjBhLTk1MTctNjgxMmE4OTU2YmRiIiwiY3JlYXRlZCI6MTY0MDgzMTY4MTUyMiwiaWQiOjI2MiwiZXhwIjoxNjQxNDM2NDgxfQ.3cOzcVqdFqgLHAuzAY5GGG3PBLWIuQHWL8b1wmpKaCytzXpFcwjCaQ_rDUjb7roDGE_lOuiUEYz5gCtPQBVWCA"
     },
     "msg": "成功",
     "success": true
@@ -1302,7 +1302,7 @@
       </c>
       <c r="L3" s="0" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>pass</t>
         </is>
       </c>
       <c r="M3" s="8" t="inlineStr">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="L4" s="0" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>pass</t>
         </is>
       </c>
       <c r="M4" s="8" t="inlineStr">
@@ -1441,12 +1441,12 @@
       </c>
       <c r="K5" s="0" t="inlineStr">
         <is>
-          <t>该账号或手机号为司导用户，请在APP登录。</t>
+          <t>该账号或手机号未注册，请检查后重新填写</t>
         </is>
       </c>
       <c r="L5" s="0" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>pass</t>
         </is>
       </c>
       <c r="M5" s="8" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="L6" s="0" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>pass</t>
         </is>
       </c>
       <c r="M6" s="8" t="inlineStr">
@@ -1588,7 +1588,7 @@
       </c>
       <c r="L7" s="0" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>pass</t>
         </is>
       </c>
       <c r="M7" s="8" t="inlineStr">
@@ -1658,17 +1658,12 @@
       </c>
       <c r="L8" s="0" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>pass</t>
         </is>
       </c>
       <c r="M8" s="8" t="inlineStr">
         <is>
-          <t>{
-    "code": "200",
-    "data": "https://oss-file-fat.yohitrip.com/guide_itinerary_20211229155526255224.pdf",
-    "msg": "成功",
-    "success": true
-}</t>
+          <t>{"code": "200", "success": true, "data": "https://oss-file-fat.yohitrip.com/guide_itinerary_20211230103443106404.pdf", "msg": "\u6210\u529f"}</t>
         </is>
       </c>
     </row>
@@ -1728,56 +1723,12 @@
       </c>
       <c r="L9" s="0" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>pass</t>
         </is>
       </c>
       <c r="M9" s="8" t="inlineStr">
         <is>
-          <t>{
-    "code": "200",
-    "data": {
-        "pageNo": "1",
-        "pageSize": "10",
-        "records": [
-            {
-                "cityId": "4903",
-                "cityName": "马德里",
-                "cityOperationStatus": true,
-                "dailyCharterOperationStatus": false,
-                "oncePriceOperationStatus": false,
-                "twiceOperationStatus": false
-            },
-            {
-                "cityId": "3791",
-                "cityName": "test",
-                "cityOperationStatus": true,
-                "dailyCharterOperationStatus": false,
-                "oncePriceOperationStatus": false,
-                "twiceOperationStatus": false
-            },
-            {
-                "cityId": "40001",
-                "cityName": "北京市",
-                "cityOperationStatus": true,
-                "dailyCharterOperationStatus": false,
-                "oncePriceOperationStatus": false,
-                "twiceOperationStatus": false
-            },
-            {
-                "cityId": "57",
-                "cityName": "艾尔芭",
-                "cityOperationStatus": true,
-                "dailyCharterOperationStatus": false,
-                "oncePriceOperationStatus": false,
-                "twiceOperationStatus": false
-            }
-        ],
-        "total": "4",
-        "totalPage": "1"
-    },
-    "msg": "成功",
-    "success": true
-}</t>
+          <t>{"code": "200", "success": true, "data": {"total": "4", "pageNo": "1", "pageSize": "10", "totalPage": "1", "records": [{"cityId": "4903", "cityName": "\u9a6c\u5fb7\u91cc", "cityOperationStatus": true, "twiceOperationStatus": false, "dailyCharterOperationStatus": false, "oncePriceOperationStatus": false}, {"cityId": "3791", "cityName": "test", "cityOperationStatus": true, "twiceOperationStatus": false, "dailyCharterOperationStatus": false, "oncePriceOperationStatus": false}, {"cityId": "40001", "cityName": "\u5317\u4eac\u5e02", "cityOperationStatus": true, "twiceOperationStatus": false, "dailyCharterOperationStatus": false, "oncePriceOperationStatus": false}, {"cityId": "57", "cityName": "\u827e\u5c14\u82ad", "cityOperationStatus": true, "twiceOperationStatus": false, "dailyCharterOperationStatus": false, "oncePriceOperationStatus": false}]}, "msg": "\u6210\u529f"}</t>
         </is>
       </c>
     </row>
@@ -1794,7 +1745,7 @@
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="D10" s="7" t="inlineStr">
@@ -1835,68 +1786,16 @@
       <c r="K10" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="L10" s="0" t="inlineStr">
-        <is>
-          <t>fail</t>
-        </is>
-      </c>
-      <c r="M10" s="8" t="inlineStr">
-        <is>
-          <t>{
-    "code": "200",
-    "data": {
-        "pageNo": "1",
-        "pageSize": "10",
-        "records": [
-            {
-                "cityId": "4903",
-                "cityName": "马德里",
-                "cityOperationStatus": true,
-                "dailyCharterOperationStatus": false,
-                "oncePriceOperationStatus": false,
-                "twiceOperationStatus": false
-            },
-            {
-                "cityId": "3791",
-                "cityName": "test",
-                "cityOperationStatus": true,
-                "dailyCharterOperationStatus": false,
-                "oncePriceOperationStatus": false,
-                "twiceOperationStatus": false
-            },
-            {
-                "cityId": "40001",
-                "cityName": "北京市",
-                "cityOperationStatus": true,
-                "dailyCharterOperationStatus": false,
-                "oncePriceOperationStatus": false,
-                "twiceOperationStatus": false
-            },
-            {
-                "cityId": "57",
-                "cityName": "艾尔芭",
-                "cityOperationStatus": true,
-                "dailyCharterOperationStatus": false,
-                "oncePriceOperationStatus": false,
-                "twiceOperationStatus": false
-            }
-        ],
-        "total": "4",
-        "totalPage": "1"
-    },
-    "msg": "成功",
-    "success": true
-}</t>
-        </is>
-      </c>
+      <c r="L10" s="0" t="inlineStr"/>
+      <c r="M10" s="8" t="inlineStr"/>
     </row>
   </sheetData>
   <dataValidations count="4">
+    <dataValidation sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"code,msg,json"</formula1>
+    </dataValidation>
     <dataValidation sqref="C1" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="custom">
       <formula1>"yes"</formula1>
-    </dataValidation>
-    <dataValidation sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"code,msg,json"</formula1>
     </dataValidation>
     <dataValidation sqref="C2 C3 C4 C5 C6 C7 C8 C9 C10" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"yes,no"</formula1>
@@ -2053,11 +1952,11 @@
     </row>
   </sheetData>
   <dataValidations count="4">
+    <dataValidation sqref="J2" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"code,msg,json"</formula1>
+    </dataValidation>
     <dataValidation sqref="C1" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="custom">
       <formula1>"yes"</formula1>
-    </dataValidation>
-    <dataValidation sqref="J2" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"code,msg,json"</formula1>
     </dataValidation>
     <dataValidation sqref="C2" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"yes,no"</formula1>

--- a/data/Test_case.xlsx
+++ b/data/Test_case.xlsx
@@ -1236,7 +1236,7 @@
             "provinceName": "安徽省",
             "uid": "262"
         },
-        "token": "yohitripeyJhbGciOiJIUzUxMiJ9.eyJzYWx0IjoiM2VlNzZkYjMtOWVkYS00MjBhLTk1MTctNjgxMmE4OTU2YmRiIiwiY3JlYXRlZCI6MTY0MDgzMTY4MTUyMiwiaWQiOjI2MiwiZXhwIjoxNjQxNDM2NDgxfQ.3cOzcVqdFqgLHAuzAY5GGG3PBLWIuQHWL8b1wmpKaCytzXpFcwjCaQ_rDUjb7roDGE_lOuiUEYz5gCtPQBVWCA"
+        "token": "yohitripeyJhbGciOiJIUzUxMiJ9.eyJzYWx0IjoiMmU4YWRmYjItZjZmOS00MjUxLThiOGUtNzE4MjljMWJhZTI5IiwiY3JlYXRlZCI6MTY0MDg0MzAwMzYwOSwiaWQiOjI2MiwiZXhwIjoxNjQxNDQ3ODAzfQ.7VgP8W_hIELWKt9DXwpCpzL-oqXGxUWjlQwMewPX_DWVgGVYh7zezWls4I67QlHMR9J12OEAhGKPVJe8rD0FFQ"
     },
     "msg": "成功",
     "success": true
@@ -1663,7 +1663,7 @@
       </c>
       <c r="M8" s="8" t="inlineStr">
         <is>
-          <t>{"code": "200", "success": true, "data": "https://oss-file-fat.yohitrip.com/guide_itinerary_20211230103443106404.pdf", "msg": "\u6210\u529f"}</t>
+          <t>{"code": "200", "success": true, "data": "https://oss-file-fat.yohitrip.com/guide_itinerary_20211230134325368295.pdf", "msg": "\u6210\u529f"}</t>
         </is>
       </c>
     </row>

--- a/data/Test_case.xlsx
+++ b/data/Test_case.xlsx
@@ -28,7 +28,50 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -44,27 +87,70 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="1"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -79,93 +165,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -179,19 +179,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -203,150 +353,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -354,12 +360,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,6 +370,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -384,6 +395,54 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -411,65 +470,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -478,10 +478,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -490,133 +490,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1063,7 +1063,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1236,7 +1236,7 @@
             "provinceName": "安徽省",
             "uid": "262"
         },
-        "token": "yohitripeyJhbGciOiJIUzUxMiJ9.eyJzYWx0IjoiMmU4YWRmYjItZjZmOS00MjUxLThiOGUtNzE4MjljMWJhZTI5IiwiY3JlYXRlZCI6MTY0MDg0MzAwMzYwOSwiaWQiOjI2MiwiZXhwIjoxNjQxNDQ3ODAzfQ.7VgP8W_hIELWKt9DXwpCpzL-oqXGxUWjlQwMewPX_DWVgGVYh7zezWls4I67QlHMR9J12OEAhGKPVJe8rD0FFQ"
+        "token": "yohitripeyJhbGciOiJIUzUxMiJ9.eyJzYWx0IjoiY2U4Mzg1NjUtZGEyYy00NTEyLWEwMTYtMGM1ZDQzZjQxMmQ3IiwiY3JlYXRlZCI6MTY0MDg0MzM1MTAyNywiaWQiOjI2MiwiZXhwIjoxNjQxNDQ4MTUxfQ.bu2587Ik3V8zssCEvYwkVyT_edy_obI8xp_LG5xRvp2sOldgf3MC7BYDed7yZaDveC1mqedd69P0E-jbMWyPEQ"
     },
     "msg": "成功",
     "success": true
@@ -1635,7 +1635,7 @@
       </c>
       <c r="G8" s="6" t="inlineStr">
         <is>
-          <t>{'file':("python.pdf",open("D:\python.pdf",'rb'),"application/pdf")}</t>
+          <t>{'file':("python.pdf",open(r"D:\python.pdf",'rb'),"application/pdf")}</t>
         </is>
       </c>
       <c r="H8" s="1" t="inlineStr">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="M8" s="8" t="inlineStr">
         <is>
-          <t>{"code": "200", "success": true, "data": "https://oss-file-fat.yohitrip.com/guide_itinerary_20211230134325368295.pdf", "msg": "\u6210\u529f"}</t>
+          <t>{"code": "200", "success": true, "data": "https://oss-file-fat.yohitrip.com/guide_itinerary_20211230134912727827.pdf", "msg": "\u6210\u529f"}</t>
         </is>
       </c>
     </row>
@@ -1791,11 +1791,11 @@
     </row>
   </sheetData>
   <dataValidations count="4">
+    <dataValidation sqref="C1" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="custom">
+      <formula1>"yes"</formula1>
+    </dataValidation>
     <dataValidation sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"code,msg,json"</formula1>
-    </dataValidation>
-    <dataValidation sqref="C1" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="custom">
-      <formula1>"yes"</formula1>
     </dataValidation>
     <dataValidation sqref="C2 C3 C4 C5 C6 C7 C8 C9 C10" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"yes,no"</formula1>
@@ -1952,17 +1952,17 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation sqref="J2" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"code,msg,json"</formula1>
+    <dataValidation sqref="H2" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"write_token,with_token"</formula1>
     </dataValidation>
     <dataValidation sqref="C1" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="custom">
       <formula1>"yes"</formula1>
     </dataValidation>
+    <dataValidation sqref="J2" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"code,msg,json"</formula1>
+    </dataValidation>
     <dataValidation sqref="C2" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"yes,no"</formula1>
-    </dataValidation>
-    <dataValidation sqref="H2" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"write_token,with_token"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/Test_case.xlsx
+++ b/data/Test_case.xlsx
@@ -28,6 +28,20 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -35,8 +49,37 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -51,8 +94,9 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -60,29 +104,22 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -102,10 +139,10 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -113,15 +150,7 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -136,36 +165,7 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -179,19 +179,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -203,19 +341,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,139 +359,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,6 +384,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -412,30 +436,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -454,8 +454,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,10 +478,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -490,133 +490,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1791,17 +1791,17 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"code,msg,json"</formula1>
-    </dataValidation>
     <dataValidation sqref="C1" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="custom">
       <formula1>"yes"</formula1>
+    </dataValidation>
+    <dataValidation sqref="H2 H3 H4 H5 H6 H7 H8 H9 H10" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"write_token,with_token,None"</formula1>
     </dataValidation>
     <dataValidation sqref="C2 C3 C4 C5 C6 C7 C8 C9 C10" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"yes,no"</formula1>
     </dataValidation>
-    <dataValidation sqref="H2 H3 H4 H5 H6 H7 H8 H9 H10" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"write_token,with_token,None"</formula1>
+    <dataValidation sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"code,msg,json"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1818,7 +1818,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -1961,7 +1961,7 @@
           <t>{
     "code": "200",
     "data": {
-        "token": "hiseaseyJhbGciOiJIUzUxMiJ9.eyJzYWx0IjoiYjI0MTFkZjAtZjU0YS00N2Q5LWE1ODItMjUxYzI3MWM3NjczIiwiY3JlYXRlZCI6MTY0MTM3NDM1NTU2NiwiaWQiOjE4LCJleHAiOjE2NDEzOTU5NTV9.gi7qb5GOrPc1WP8lwggrVtvWc2oQWyQ68FuNgFCWZspuRAog4_oH4dFnfVeJVUxV0iREk3Q7Ipj2eRBUpMZ8SA",
+        "token": "hiseaseyJhbGciOiJIUzUxMiJ9.eyJzYWx0IjoiNGU0OGI4OTItYWQ0Ni00N2I0LTg3NWUtMDIyMjg1YWM0Nzk4IiwiY3JlYXRlZCI6MTY0MTQzMzk0NjQwOCwiaWQiOjE4LCJleHAiOjE2NDE0NTU1NDZ9.9GeFh8fHiJYZXFdf1D9b3EVlRVDyd6vHDtsS_rxe9mvpwm65R5sWESCUKxFjBFfzctEnUTwJFY7aFYbr5z64jw",
         "userVO": {
             "accountNo": "wj@qq.com",
             "code": "A00018",
@@ -2043,9 +2043,9 @@
         "isDeleted": false,
         "name": "python.pdf",
         "operator": "吴姜-wujiang",
-        "path": "upload/20220105/python.pdf",
-        "time": "2022-01-05 17:19:16",
-        "url": "https://yanxue-dev.oss-cn-chengdu.aliyuncs.com/upload/20220105/python.pdf"
+        "path": "upload/20220106/python.pdf",
+        "time": "2022-01-06 09:52:26",
+        "url": "https://yanxue-dev.oss-cn-chengdu.aliyuncs.com/upload/20220106/python.pdf"
     },
     "msg": "成功",
     "success": true
@@ -2265,7 +2265,7 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="61" customHeight="1" s="2">
+    <row r="5" ht="85" customHeight="1" s="2">
       <c r="A5" s="0" t="inlineStr">
         <is>
           <t>case_004</t>
@@ -2283,7 +2283,8 @@
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>sql#yanxue_common_fat&gt;{"alternativeSupplierId":"id","alternativeSupplierName":"name"}</t>
+          <t>sql#yanxue_common_fat+case_004&gt;{"alternativeSupplierId":"id","alternativeSupplierName":"name"}&amp;
+sql#yanxue_common_fat+case_004&gt;{'supplierId':'id','supplierName':'name'}</t>
         </is>
       </c>
       <c r="E5" s="0" t="inlineStr">
@@ -2319,21 +2320,8 @@
       <c r="K5" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="L5" s="0" t="inlineStr">
-        <is>
-          <t>fail</t>
-        </is>
-      </c>
-      <c r="M5" s="0" t="inlineStr">
-        <is>
-          <t>{
-    "code": "400",
-    "data": null,
-    "msg": "JSON parse error: Unrecognized token 'relation': was expecting (JSON String, Number, Array, Object or token 'null', 'true' or 'false'); nested exception is com.fasterxml.jackson.core.JsonParseException: Unrecognized token 'relation': was expecting (JSON String, Number, Array, Object or token 'null', 'true' or 'false')\n at [Source: (PushbackInputStream); line: 1, column: 10]",
-    "success": false
-}</t>
-        </is>
-      </c>
+      <c r="L5" s="0" t="inlineStr"/>
+      <c r="M5" s="3" t="inlineStr"/>
     </row>
     <row r="6" ht="26" customHeight="1" s="2">
       <c r="A6" s="0" t="inlineStr">
@@ -2389,16 +2377,35 @@
       <c r="K6" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="L6" s="0" t="inlineStr"/>
-      <c r="M6" s="0" t="inlineStr"/>
+      <c r="L6" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="M6" s="3" t="inlineStr">
+        <is>
+          <t>{
+    "code": "200",
+    "data": {
+        "pageNo": "1",
+        "pageSize": "10",
+        "records": [],
+        "total": "0",
+        "totalPage": "0"
+    },
+    "msg": "成功",
+    "success": true
+}</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="4">
+    <dataValidation sqref="C1" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="custom">
+      <formula1>"yes"</formula1>
+    </dataValidation>
     <dataValidation sqref="J2" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"code,msg,json"</formula1>
-    </dataValidation>
-    <dataValidation sqref="C1" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="custom">
-      <formula1>"yes"</formula1>
     </dataValidation>
     <dataValidation sqref="C4 C5 C6 C2:C3" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"yes,no"</formula1>

--- a/data/Test_case.xlsx
+++ b/data/Test_case.xlsx
@@ -28,13 +28,6 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -49,8 +42,15 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -63,24 +63,10 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="11"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -104,21 +90,6 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -150,13 +121,35 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="15"/>
+      <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -169,6 +162,13 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -179,43 +179,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,139 +305,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,26 +388,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -431,7 +416,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -454,8 +454,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,10 +478,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -490,133 +490,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1062,8 +1062,8 @@
   </sheetPr>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1791,14 +1791,14 @@
     </row>
   </sheetData>
   <dataValidations count="4">
+    <dataValidation sqref="C2 C3 C4 C5 C6 C7 C8 C9 C10" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"yes,no"</formula1>
+    </dataValidation>
     <dataValidation sqref="C1" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="custom">
       <formula1>"yes"</formula1>
     </dataValidation>
     <dataValidation sqref="H2 H3 H4 H5 H6 H7 H8 H9 H10" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"write_token,with_token,None"</formula1>
-    </dataValidation>
-    <dataValidation sqref="C2 C3 C4 C5 C6 C7 C8 C9 C10" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"yes,no"</formula1>
     </dataValidation>
     <dataValidation sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"code,msg,json"</formula1>
@@ -1818,7 +1818,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -1961,7 +1961,7 @@
           <t>{
     "code": "200",
     "data": {
-        "token": "hiseaseyJhbGciOiJIUzUxMiJ9.eyJzYWx0IjoiNGU0OGI4OTItYWQ0Ni00N2I0LTg3NWUtMDIyMjg1YWM0Nzk4IiwiY3JlYXRlZCI6MTY0MTQzMzk0NjQwOCwiaWQiOjE4LCJleHAiOjE2NDE0NTU1NDZ9.9GeFh8fHiJYZXFdf1D9b3EVlRVDyd6vHDtsS_rxe9mvpwm65R5sWESCUKxFjBFfzctEnUTwJFY7aFYbr5z64jw",
+        "token": "hiseaseyJhbGciOiJIUzUxMiJ9.eyJzYWx0IjoiZGMyYTZkNjAtMWRlMS00MmY3LTlkYjUtOGM4Nzg4NjllMDBlIiwiY3JlYXRlZCI6MTY0MTQ0OTkyOTYwNCwiaWQiOjE4LCJleHAiOjE2NDE0NzE1Mjl9.EDyHycgSAOnaqYhstAqHlr1rBeP2w1cdxTbnejF4FzCt9JUlC3QzF72vPyoVdI8d_jft2m8SXEbfeTPtPxpXHg",
         "userVO": {
             "accountNo": "wj@qq.com",
             "code": "A00018",
@@ -2035,21 +2035,9 @@
           <t>pass</t>
         </is>
       </c>
-      <c r="M3" s="0" t="inlineStr">
-        <is>
-          <t>{
-    "code": "200",
-    "data": {
-        "isDeleted": false,
-        "name": "python.pdf",
-        "operator": "吴姜-wujiang",
-        "path": "upload/20220106/python.pdf",
-        "time": "2022-01-06 09:52:26",
-        "url": "https://yanxue-dev.oss-cn-chengdu.aliyuncs.com/upload/20220106/python.pdf"
-    },
-    "msg": "成功",
-    "success": true
-}</t>
+      <c r="M3" s="3" t="inlineStr">
+        <is>
+          <t>{"code": "200", "success": true, "data": {"name": "python.pdf", "path": "upload/20220106/python.pdf", "url": "https://yanxue-dev.oss-cn-chengdu.aliyuncs.com/upload/20220106/python.pdf", "time": "2022-01-06 14:18:49", "operator": "\u5434\u59dc-wujiang", "isDeleted": false}, "msg": "\u6210\u529f"}</t>
         </is>
       </c>
     </row>
@@ -2107,161 +2095,9 @@
           <t>pass</t>
         </is>
       </c>
-      <c r="M4" s="0" t="inlineStr">
-        <is>
-          <t>{
-    "code": "200",
-    "data": {
-        "pageNo": "1",
-        "pageSize": "10",
-        "records": [
-            {
-                "auditStatus": "APPROVE",
-                "auditorName": "",
-                "cityName": "秦皇岛市",
-                "code": "SU000399",
-                "countryName": "中国",
-                "creatorName": "吴姜-wujiang",
-                "enableStatus": "ENABLE",
-                "name": "超艺科技有限公司",
-                "provinceName": "河北省",
-                "supplierId": "580",
-                "supplierResources": [
-                    {
-                        "resourceId": "1359",
-                        "resourceType": "INSURANCE"
-                    }
-                ]
-            },
-            {
-                "auditStatus": "APPROVE",
-                "auditorName": "",
-                "cityName": "阳泉市",
-                "code": "SU000398",
-                "countryName": "中国",
-                "creatorName": "吴姜-wujiang",
-                "enableStatus": "ENABLE",
-                "name": "为热刺",
-                "provinceName": "山西省",
-                "supplierId": "579",
-                "supplierResources": []
-            },
-            {
-                "auditStatus": "APPROVE",
-                "auditorName": "",
-                "cityName": "天津市",
-                "code": "SU000396",
-                "countryName": "中国",
-                "creatorName": "吴姜-wujiang",
-                "enableStatus": "ENABLE",
-                "name": "23213",
-                "provinceName": "天津市",
-                "supplierId": "577",
-                "supplierResources": []
-            },
-            {
-                "auditStatus": "APPROVE",
-                "auditorName": "",
-                "cityName": "天津市",
-                "code": "SU000395",
-                "countryName": "中国",
-                "creatorName": "吴姜-wujiang",
-                "enableStatus": "ENABLE",
-                "name": "委屈翁群翁群二",
-                "provinceName": "天津市",
-                "supplierId": "576",
-                "supplierResources": [
-                    {
-                        "resourceId": "1741",
-                        "resourceType": "TRAFFIC_MODE"
-                    }
-                ]
-            },
-            {
-                "auditStatus": "APPROVE",
-                "auditorName": "",
-                "cityName": "天津市",
-                "code": "SU000394",
-                "countryName": "中国",
-                "creatorName": "吴姜-wujiang",
-                "enableStatus": "ENABLE",
-                "name": "23123",
-                "provinceName": "天津市",
-                "supplierId": "575",
-                "supplierResources": []
-            },
-            {
-                "auditStatus": "APPROVE",
-                "auditorName": "",
-                "cityName": "天津市",
-                "code": "SU000393",
-                "countryName": "中国",
-                "creatorName": "吴姜-wujiang",
-                "enableStatus": "ENABLE",
-                "name": "测试银行账户的问题",
-                "provinceName": "天津市",
-                "supplierId": "574",
-                "supplierResources": []
-            },
-            {
-                "auditStatus": "APPROVE",
-                "auditorName": "",
-                "cityName": "市辖区",
-                "code": "SU000392",
-                "countryName": "中国",
-                "creatorName": "吴姜-wujiang",
-                "enableStatus": "ENABLE",
-                "name": "12121",
-                "provinceName": "北京市",
-                "supplierId": "573",
-                "supplierResources": []
-            },
-            {
-                "auditStatus": "APPROVE",
-                "auditorName": "",
-                "cityName": "市辖区",
-                "code": "SU000388",
-                "countryName": "中国",
-                "creatorName": "吴姜-wujiang",
-                "enableStatus": "ENABLE",
-                "name": "测试钉钉消息是否可以收到信息",
-                "provinceName": "北京市",
-                "supplierId": "569",
-                "supplierResources": []
-            },
-            {
-                "auditStatus": "APPROVE",
-                "auditorName": "",
-                "cityName": "市辖区",
-                "code": "SU000385",
-                "countryName": "中国",
-                "creatorName": "吴姜-wujiang",
-                "enableStatus": "ENABLE",
-                "name": "232134141",
-                "provinceName": "北京市",
-                "supplierId": "566",
-                "supplierResources": []
-            },
-            {
-                "auditStatus": "APPROVE",
-                "auditorName": "",
-                "cityName": "天津市",
-                "code": "SU000376",
-                "countryName": "中国",
-                "creatorName": "姜-jiang",
-                "enableStatus": "ENABLE",
-                "name": "无囊",
-                "provinceName": "天津市",
-                "supplierId": "550",
-                "supplierResources": []
-            }
-        ],
-        "total": "33",
-        "totalPage": "4"
-    },
-    "msg": "成功",
-    "success": true
-}</t>
+      <c r="M4" s="3" t="inlineStr">
+        <is>
+          <t>{"code": "200", "success": true, "data": {"total": "33", "pageNo": "1", "pageSize": "10", "totalPage": "4", "records": [{"supplierId": "580", "code": "SU000399", "name": "\u8d85\u827a\u79d1\u6280\u6709\u9650\u516c\u53f8", "countryName": "\u4e2d\u56fd", "provinceName": "\u6cb3\u5317\u7701", "cityName": "\u79e6\u7687\u5c9b\u5e02", "auditStatus": "APPROVE", "enableStatus": "ENABLE", "creatorName": "\u5434\u59dc-wujiang", "auditorName": "", "supplierResources": [{"resourceType": "INSURANCE", "resourceId": "1359"}]}, {"supplierId": "579", "code": "SU000398", "name": "\u4e3a\u70ed\u523a", "countryName": "\u4e2d\u56fd", "provinceName": "\u5c71\u897f\u7701", "cityName": "\u9633\u6cc9\u5e02", "auditStatus": "APPROVE", "enableStatus": "ENABLE", "creatorName": "\u5434\u59dc-wujiang", "auditorName": "", "supplierResources": []}, {"supplierId": "577", "code": "SU000396", "name": "23213", "countryName": "\u4e2d\u56fd", "provinceName": "\u5929\u6d25\u5e02", "cityName": "\u5929\u6d25\u5e02", "auditStatus": "APPROVE", "enableStatus": "ENABLE", "creatorName": "\u5434\u59dc-wujiang", "auditorName": "", "supplierResources": []}, {"supplierId": "576", "code": "SU000395", "name": "\u59d4\u5c48\u7fc1\u7fa4\u7fc1\u7fa4\u4e8c", "countryName": "\u4e2d\u56fd", "provinceName": "\u5929\u6d25\u5e02", "cityName": "\u5929\u6d25\u5e02", "auditStatus": "APPROVE", "enableStatus": "ENABLE", "creatorName": "\u5434\u59dc-wujiang", "auditorName": "", "supplierResources": [{"resourceType": "TRAFFIC_MODE", "resourceId": "1741"}]}, {"supplierId": "575", "code": "SU000394", "name": "23123", "countryName": "\u4e2d\u56fd", "provinceName": "\u5929\u6d25\u5e02", "cityName": "\u5929\u6d25\u5e02", "auditStatus": "APPROVE", "enableStatus": "ENABLE", "creatorName": "\u5434\u59dc-wujiang", "auditorName": "", "supplierResources": []}, {"supplierId": "574", "code": "SU000393", "name": "\u6d4b\u8bd5\u94f6\u884c\u8d26\u6237\u7684\u95ee\u9898", "countryName": "\u4e2d\u56fd", "provinceName": "\u5929\u6d25\u5e02", "cityName": "\u5929\u6d25\u5e02", "auditStatus": "APPROVE", "enableStatus": "ENABLE", "creatorName": "\u5434\u59dc-wujiang", "auditorName": "", "supplierResources": []}, {"supplierId": "573", "code": "SU000392", "name": "12121", "countryName": "\u4e2d\u56fd", "provinceName": "\u5317\u4eac\u5e02", "cityName": "\u5e02\u8f96\u533a", "auditStatus": "APPROVE", "enableStatus": "ENABLE", "creatorName": "\u5434\u59dc-wujiang", "auditorName": "", "supplierResources": []}, {"supplierId": "569", "code": "SU000388", "name": "\u6d4b\u8bd5\u9489\u9489\u6d88\u606f\u662f\u5426\u53ef\u4ee5\u6536\u5230\u4fe1\u606f", "countryName": "\u4e2d\u56fd", "provinceName": "\u5317\u4eac\u5e02", "cityName": "\u5e02\u8f96\u533a", "auditStatus": "APPROVE", "enableStatus": "ENABLE", "creatorName": "\u5434\u59dc-wujiang", "auditorName": "", "supplierResources": []}, {"supplierId": "566", "code": "SU000385", "name": "232134141", "countryName": "\u4e2d\u56fd", "provinceName": "\u5317\u4eac\u5e02", "cityName": "\u5e02\u8f96\u533a", "auditStatus": "APPROVE", "enableStatus": "ENABLE", "creatorName": "\u5434\u59dc-wujiang", "auditorName": "", "supplierResources": []}, {"supplierId": "550", "code": "SU000376", "name": "\u65e0\u56ca", "countryName": "\u4e2d\u56fd", "provinceName": "\u5929\u6d25\u5e02", "cityName": "\u5929\u6d25\u5e02", "auditStatus": "APPROVE", "enableStatus": "ENABLE", "creatorName": "\u59dc-jiang", "auditorName": "", "supplierResources": []}]}, "msg": "\u6210\u529f"}</t>
         </is>
       </c>
     </row>
@@ -2320,8 +2156,16 @@
       <c r="K5" s="0" t="n">
         <v>200</v>
       </c>
-      <c r="L5" s="0" t="inlineStr"/>
-      <c r="M5" s="3" t="inlineStr"/>
+      <c r="L5" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>{"code": "200", "success": true, "data": null, "msg": "\u65e0\u6570\u636e"}</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="26" customHeight="1" s="2">
       <c r="A6" s="0" t="inlineStr">
@@ -2341,7 +2185,7 @@
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>case_001&gt;data.customer.provinceName@#name#</t>
+          <t>case_001&gt;data.userVO.name@#name#</t>
         </is>
       </c>
       <c r="E6" s="0" t="inlineStr">
@@ -2384,31 +2228,20 @@
       </c>
       <c r="M6" s="3" t="inlineStr">
         <is>
-          <t>{
-    "code": "200",
-    "data": {
-        "pageNo": "1",
-        "pageSize": "10",
-        "records": [],
-        "total": "0",
-        "totalPage": "0"
-    },
-    "msg": "成功",
-    "success": true
-}</t>
+          <t>{"code": "200", "success": true, "data": {"total": "0", "pageNo": "1", "pageSize": "10", "totalPage": "0", "records": []}, "msg": "\u6210\u529f"}</t>
         </is>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
+    <dataValidation sqref="C4 C5 C6 C2:C3" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"yes,no"</formula1>
+    </dataValidation>
     <dataValidation sqref="C1" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="custom">
       <formula1>"yes"</formula1>
     </dataValidation>
     <dataValidation sqref="J2" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"code,msg,json"</formula1>
-    </dataValidation>
-    <dataValidation sqref="C4 C5 C6 C2:C3" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"yes,no"</formula1>
     </dataValidation>
     <dataValidation sqref="H4 H5 H6 H2:H3" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"write_token,with_token"</formula1>

--- a/data/Test_case.xlsx
+++ b/data/Test_case.xlsx
@@ -1961,7 +1961,7 @@
           <t>{
     "code": "200",
     "data": {
-        "token": "hiseaseyJhbGciOiJIUzUxMiJ9.eyJzYWx0IjoiZGMyYTZkNjAtMWRlMS00MmY3LTlkYjUtOGM4Nzg4NjllMDBlIiwiY3JlYXRlZCI6MTY0MTQ0OTkyOTYwNCwiaWQiOjE4LCJleHAiOjE2NDE0NzE1Mjl9.EDyHycgSAOnaqYhstAqHlr1rBeP2w1cdxTbnejF4FzCt9JUlC3QzF72vPyoVdI8d_jft2m8SXEbfeTPtPxpXHg",
+        "token": "hiseaseyJhbGciOiJIUzUxMiJ9.eyJzYWx0IjoiMzU5M2MyNDUtZGJkNy00MjBiLTliMzgtZTIwNDM5YmUyMzBhIiwiY3JlYXRlZCI6MTY0MTQ1MDM1MTg0OCwiaWQiOjE4LCJleHAiOjE2NDE0NzE5NTF9.PZAFFAX0P7CNJMFdTO1Z_uwFEhOQ1RDPGi3daykTziROlR0laAtYKpU5C8wE2UksoLrjLHyMLePT7RzgPcUk6Q",
         "userVO": {
             "accountNo": "wj@qq.com",
             "code": "A00018",
@@ -2037,7 +2037,19 @@
       </c>
       <c r="M3" s="3" t="inlineStr">
         <is>
-          <t>{"code": "200", "success": true, "data": {"name": "python.pdf", "path": "upload/20220106/python.pdf", "url": "https://yanxue-dev.oss-cn-chengdu.aliyuncs.com/upload/20220106/python.pdf", "time": "2022-01-06 14:18:49", "operator": "\u5434\u59dc-wujiang", "isDeleted": false}, "msg": "\u6210\u529f"}</t>
+          <t>{
+    "code": "200",
+    "data": {
+        "isDeleted": false,
+        "name": "python.pdf",
+        "operator": "吴姜-wujiang",
+        "path": "upload/20220106/python.pdf",
+        "time": "2022-01-06 14:25:52",
+        "url": "https://yanxue-dev.oss-cn-chengdu.aliyuncs.com/upload/20220106/python.pdf"
+    },
+    "msg": "成功",
+    "success": true
+}</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2109,159 @@
       </c>
       <c r="M4" s="3" t="inlineStr">
         <is>
-          <t>{"code": "200", "success": true, "data": {"total": "33", "pageNo": "1", "pageSize": "10", "totalPage": "4", "records": [{"supplierId": "580", "code": "SU000399", "name": "\u8d85\u827a\u79d1\u6280\u6709\u9650\u516c\u53f8", "countryName": "\u4e2d\u56fd", "provinceName": "\u6cb3\u5317\u7701", "cityName": "\u79e6\u7687\u5c9b\u5e02", "auditStatus": "APPROVE", "enableStatus": "ENABLE", "creatorName": "\u5434\u59dc-wujiang", "auditorName": "", "supplierResources": [{"resourceType": "INSURANCE", "resourceId": "1359"}]}, {"supplierId": "579", "code": "SU000398", "name": "\u4e3a\u70ed\u523a", "countryName": "\u4e2d\u56fd", "provinceName": "\u5c71\u897f\u7701", "cityName": "\u9633\u6cc9\u5e02", "auditStatus": "APPROVE", "enableStatus": "ENABLE", "creatorName": "\u5434\u59dc-wujiang", "auditorName": "", "supplierResources": []}, {"supplierId": "577", "code": "SU000396", "name": "23213", "countryName": "\u4e2d\u56fd", "provinceName": "\u5929\u6d25\u5e02", "cityName": "\u5929\u6d25\u5e02", "auditStatus": "APPROVE", "enableStatus": "ENABLE", "creatorName": "\u5434\u59dc-wujiang", "auditorName": "", "supplierResources": []}, {"supplierId": "576", "code": "SU000395", "name": "\u59d4\u5c48\u7fc1\u7fa4\u7fc1\u7fa4\u4e8c", "countryName": "\u4e2d\u56fd", "provinceName": "\u5929\u6d25\u5e02", "cityName": "\u5929\u6d25\u5e02", "auditStatus": "APPROVE", "enableStatus": "ENABLE", "creatorName": "\u5434\u59dc-wujiang", "auditorName": "", "supplierResources": [{"resourceType": "TRAFFIC_MODE", "resourceId": "1741"}]}, {"supplierId": "575", "code": "SU000394", "name": "23123", "countryName": "\u4e2d\u56fd", "provinceName": "\u5929\u6d25\u5e02", "cityName": "\u5929\u6d25\u5e02", "auditStatus": "APPROVE", "enableStatus": "ENABLE", "creatorName": "\u5434\u59dc-wujiang", "auditorName": "", "supplierResources": []}, {"supplierId": "574", "code": "SU000393", "name": "\u6d4b\u8bd5\u94f6\u884c\u8d26\u6237\u7684\u95ee\u9898", "countryName": "\u4e2d\u56fd", "provinceName": "\u5929\u6d25\u5e02", "cityName": "\u5929\u6d25\u5e02", "auditStatus": "APPROVE", "enableStatus": "ENABLE", "creatorName": "\u5434\u59dc-wujiang", "auditorName": "", "supplierResources": []}, {"supplierId": "573", "code": "SU000392", "name": "12121", "countryName": "\u4e2d\u56fd", "provinceName": "\u5317\u4eac\u5e02", "cityName": "\u5e02\u8f96\u533a", "auditStatus": "APPROVE", "enableStatus": "ENABLE", "creatorName": "\u5434\u59dc-wujiang", "auditorName": "", "supplierResources": []}, {"supplierId": "569", "code": "SU000388", "name": "\u6d4b\u8bd5\u9489\u9489\u6d88\u606f\u662f\u5426\u53ef\u4ee5\u6536\u5230\u4fe1\u606f", "countryName": "\u4e2d\u56fd", "provinceName": "\u5317\u4eac\u5e02", "cityName": "\u5e02\u8f96\u533a", "auditStatus": "APPROVE", "enableStatus": "ENABLE", "creatorName": "\u5434\u59dc-wujiang", "auditorName": "", "supplierResources": []}, {"supplierId": "566", "code": "SU000385", "name": "232134141", "countryName": "\u4e2d\u56fd", "provinceName": "\u5317\u4eac\u5e02", "cityName": "\u5e02\u8f96\u533a", "auditStatus": "APPROVE", "enableStatus": "ENABLE", "creatorName": "\u5434\u59dc-wujiang", "auditorName": "", "supplierResources": []}, {"supplierId": "550", "code": "SU000376", "name": "\u65e0\u56ca", "countryName": "\u4e2d\u56fd", "provinceName": "\u5929\u6d25\u5e02", "cityName": "\u5929\u6d25\u5e02", "auditStatus": "APPROVE", "enableStatus": "ENABLE", "creatorName": "\u59dc-jiang", "auditorName": "", "supplierResources": []}]}, "msg": "\u6210\u529f"}</t>
+          <t>{
+    "code": "200",
+    "data": {
+        "pageNo": "1",
+        "pageSize": "10",
+        "records": [
+            {
+                "auditStatus": "APPROVE",
+                "auditorName": "",
+                "cityName": "秦皇岛市",
+                "code": "SU000399",
+                "countryName": "中国",
+                "creatorName": "吴姜-wujiang",
+                "enableStatus": "ENABLE",
+                "name": "超艺科技有限公司",
+                "provinceName": "河北省",
+                "supplierId": "580",
+                "supplierResources": [
+                    {
+                        "resourceId": "1359",
+                        "resourceType": "INSURANCE"
+                    }
+                ]
+            },
+            {
+                "auditStatus": "APPROVE",
+                "auditorName": "",
+                "cityName": "阳泉市",
+                "code": "SU000398",
+                "countryName": "中国",
+                "creatorName": "吴姜-wujiang",
+                "enableStatus": "ENABLE",
+                "name": "为热刺",
+                "provinceName": "山西省",
+                "supplierId": "579",
+                "supplierResources": []
+            },
+            {
+                "auditStatus": "APPROVE",
+                "auditorName": "",
+                "cityName": "天津市",
+                "code": "SU000396",
+                "countryName": "中国",
+                "creatorName": "吴姜-wujiang",
+                "enableStatus": "ENABLE",
+                "name": "23213",
+                "provinceName": "天津市",
+                "supplierId": "577",
+                "supplierResources": []
+            },
+            {
+                "auditStatus": "APPROVE",
+                "auditorName": "",
+                "cityName": "天津市",
+                "code": "SU000395",
+                "countryName": "中国",
+                "creatorName": "吴姜-wujiang",
+                "enableStatus": "ENABLE",
+                "name": "委屈翁群翁群二",
+                "provinceName": "天津市",
+                "supplierId": "576",
+                "supplierResources": [
+                    {
+                        "resourceId": "1741",
+                        "resourceType": "TRAFFIC_MODE"
+                    }
+                ]
+            },
+            {
+                "auditStatus": "APPROVE",
+                "auditorName": "",
+                "cityName": "天津市",
+                "code": "SU000394",
+                "countryName": "中国",
+                "creatorName": "吴姜-wujiang",
+                "enableStatus": "ENABLE",
+                "name": "23123",
+                "provinceName": "天津市",
+                "supplierId": "575",
+                "supplierResources": []
+            },
+            {
+                "auditStatus": "APPROVE",
+                "auditorName": "",
+                "cityName": "天津市",
+                "code": "SU000393",
+                "countryName": "中国",
+                "creatorName": "吴姜-wujiang",
+                "enableStatus": "ENABLE",
+                "name": "测试银行账户的问题",
+                "provinceName": "天津市",
+                "supplierId": "574",
+                "supplierResources": []
+            },
+            {
+                "auditStatus": "APPROVE",
+                "auditorName": "",
+                "cityName": "市辖区",
+                "code": "SU000392",
+                "countryName": "中国",
+                "creatorName": "吴姜-wujiang",
+                "enableStatus": "ENABLE",
+                "name": "12121",
+                "provinceName": "北京市",
+                "supplierId": "573",
+                "supplierResources": []
+            },
+            {
+                "auditStatus": "APPROVE",
+                "auditorName": "",
+                "cityName": "市辖区",
+                "code": "SU000388",
+                "countryName": "中国",
+                "creatorName": "吴姜-wujiang",
+                "enableStatus": "ENABLE",
+                "name": "测试钉钉消息是否可以收到信息",
+                "provinceName": "北京市",
+                "supplierId": "569",
+                "supplierResources": []
+            },
+            {
+                "auditStatus": "APPROVE",
+                "auditorName": "",
+                "cityName": "市辖区",
+                "code": "SU000385",
+                "countryName": "中国",
+                "creatorName": "吴姜-wujiang",
+                "enableStatus": "ENABLE",
+                "name": "232134141",
+                "provinceName": "北京市",
+                "supplierId": "566",
+                "supplierResources": []
+            },
+            {
+                "auditStatus": "APPROVE",
+                "auditorName": "",
+                "cityName": "天津市",
+                "code": "SU000376",
+                "countryName": "中国",
+                "creatorName": "姜-jiang",
+                "enableStatus": "ENABLE",
+                "name": "无囊",
+                "provinceName": "天津市",
+                "supplierId": "550",
+                "supplierResources": []
+            }
+        ],
+        "total": "33",
+        "totalPage": "4"
+    },
+    "msg": "成功",
+    "success": true
+}</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2327,12 @@
       </c>
       <c r="M5" s="3" t="inlineStr">
         <is>
-          <t>{"code": "200", "success": true, "data": null, "msg": "\u65e0\u6570\u636e"}</t>
+          <t>{
+    "code": "200",
+    "data": null,
+    "msg": "无数据",
+    "success": true
+}</t>
         </is>
       </c>
     </row>
@@ -2228,7 +2397,18 @@
       </c>
       <c r="M6" s="3" t="inlineStr">
         <is>
-          <t>{"code": "200", "success": true, "data": {"total": "0", "pageNo": "1", "pageSize": "10", "totalPage": "0", "records": []}, "msg": "\u6210\u529f"}</t>
+          <t>{
+    "code": "200",
+    "data": {
+        "pageNo": "1",
+        "pageSize": "10",
+        "records": [],
+        "total": "0",
+        "totalPage": "0"
+    },
+    "msg": "成功",
+    "success": true
+}</t>
         </is>
       </c>
     </row>

--- a/data/Test_case.xlsx
+++ b/data/Test_case.xlsx
@@ -28,14 +28,29 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -49,32 +64,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color rgb="FF9C0006"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -87,16 +78,16 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -121,7 +112,23 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -137,13 +144,6 @@
       <charset val="0"/>
       <b val="1"/>
       <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -179,187 +179,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,6 +370,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -398,30 +413,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -432,6 +423,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,10 +478,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -490,133 +490,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1791,11 +1791,11 @@
     </row>
   </sheetData>
   <dataValidations count="4">
+    <dataValidation sqref="C1" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="custom">
+      <formula1>"yes"</formula1>
+    </dataValidation>
     <dataValidation sqref="C2 C3 C4 C5 C6 C7 C8 C9 C10" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"yes,no"</formula1>
-    </dataValidation>
-    <dataValidation sqref="C1" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="custom">
-      <formula1>"yes"</formula1>
     </dataValidation>
     <dataValidation sqref="H2 H3 H4 H5 H6 H7 H8 H9 H10" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"write_token,with_token,None"</formula1>
@@ -1815,23 +1815,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
     <col width="18.25" customWidth="1" style="1" min="2" max="2"/>
-    <col width="56.25" customWidth="1" style="2" min="4" max="4"/>
+    <col width="22.25" customWidth="1" style="2" min="4" max="4"/>
     <col width="21.5" customWidth="1" style="2" min="5" max="5"/>
-    <col width="43.875" customWidth="1" style="2" min="7" max="7"/>
-    <col width="17" customWidth="1" style="2" min="8" max="8"/>
-    <col width="50.125" customWidth="1" style="2" min="9" max="9"/>
-    <col width="7.5" customWidth="1" style="2" min="10" max="10"/>
-    <col width="10.75" customWidth="1" style="2" min="12" max="12"/>
-    <col width="42.5" customWidth="1" style="2" min="13" max="13"/>
+    <col width="39.625" customWidth="1" style="2" min="7" max="7"/>
+    <col width="10.5" customWidth="1" style="2" min="8" max="8"/>
+    <col width="5.875" customWidth="1" style="2" min="9" max="9"/>
+    <col width="6.875" customWidth="1" style="2" min="10" max="10"/>
+    <col width="10.25" customWidth="1" style="2" min="11" max="11"/>
+    <col width="11.125" customWidth="1" style="2" min="12" max="12"/>
+    <col width="73.375" customWidth="1" style="2" min="13" max="13"/>
+    <col width="73.5" customWidth="1" style="2" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" customFormat="1" customHeight="1" s="1">
@@ -1900,6 +1902,11 @@
           <t>返回数据</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>mok_data</t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="50" customHeight="1" s="2">
       <c r="A2" s="0" t="inlineStr">
@@ -1961,7 +1968,7 @@
           <t>{
     "code": "200",
     "data": {
-        "token": "hiseaseyJhbGciOiJIUzUxMiJ9.eyJzYWx0IjoiMzU5M2MyNDUtZGJkNy00MjBiLTliMzgtZTIwNDM5YmUyMzBhIiwiY3JlYXRlZCI6MTY0MTQ1MDM1MTg0OCwiaWQiOjE4LCJleHAiOjE2NDE0NzE5NTF9.PZAFFAX0P7CNJMFdTO1Z_uwFEhOQ1RDPGi3daykTziROlR0laAtYKpU5C8wE2UksoLrjLHyMLePT7RzgPcUk6Q",
+        "token": "hiseaseyJhbGciOiJIUzUxMiJ9.eyJzYWx0IjoiNzVmZDlmZDUtYzQwNi00YjY2LWI1NjItZThjM2YwNjE5NzY4IiwiY3JlYXRlZCI6MTY0MTQ1OTkyOTE2NywiaWQiOjE4LCJleHAiOjE2NDE0ODE1Mjl9.1kgc49UuXSH_dAznkMBFcY1xR1yVM5JglTsvlQjQeSzbgzCnRfM_yLfkcMyQfPp6vSsR5JhLE8DR4vf5pfWr0A",
         "userVO": {
             "accountNo": "wj@qq.com",
             "code": "A00018",
@@ -2044,7 +2051,7 @@
         "name": "python.pdf",
         "operator": "吴姜-wujiang",
         "path": "upload/20220106/python.pdf",
-        "time": "2022-01-06 14:25:52",
+        "time": "2022-01-06 17:05:29",
         "url": "https://yanxue-dev.oss-cn-chengdu.aliyuncs.com/upload/20220106/python.pdf"
     },
     "msg": "成功",
@@ -2336,7 +2343,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="26" customHeight="1" s="2">
+    <row r="6" ht="45" customHeight="1" s="2">
       <c r="A6" s="0" t="inlineStr">
         <is>
           <t>case_005</t>
@@ -2412,18 +2419,198 @@
         </is>
       </c>
     </row>
+    <row r="7" ht="43" customHeight="1" s="2">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>case_006</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>岗位管理-新增</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="n"/>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>basic/position/addOrUpdate</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>{"name":"#faker.job#","description":"#sentence#"}</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>with_token</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>{"content-type":"application/json;charset=UTF-8"}</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="L7" s="0" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="M7" s="0" t="inlineStr">
+        <is>
+          <t>{
+    "code": "400",
+    "data": null,
+    "msg": "已存在，不能添加！",
+    "success": false
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="336" customHeight="1" s="2">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>case_007</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>供应商-新增</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="n"/>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>supplier/modify</t>
+        </is>
+      </c>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
+          <t>mock_post</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>{"name":"2323232","countryId":"1","address":"2312313","phoneNo":"2312313","email":"1@qq.com","category":"INTERNAL","settlementType":"PREPAY","prepayPercent":10,"payType":"BANK_TRANSFER","currencyId":"1",,"countryName":"中国","provinceId":"120000","provinceName":"天津市","cityId":"820003","cityName":"天津市"}</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>with_token</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>{"content-type":"application/json;charset=UTF-8"}</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="inlineStr">
+        <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>200</v>
+      </c>
+      <c r="L8" s="0" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="M8" s="3" t="inlineStr">
+        <is>
+          <t>{
+    "code": "200",
+    "data": {
+        "token": "hiseaseyJhbGciOiJIUzUxMiJ9.eyJzYWx0IjoiMzU5M2MyNDUtZGJkNy00MjBiLTliMzgtZTIwNDM5YmUyMzBhIiwiY3JlYXRlZCI6MTY0MTQ1MDM1MTg0OCwiaWQiOjE4LCJleHAiOjE2NDE0NzE5NTF9.PZAFFAX0P7CNJMFdTO1Z_uwFEhOQ1RDPGi3daykTziROlR0laAtYKpU5C8wE2UksoLrjLHyMLePT7RzgPcUk6Q",
+        "userVO": {
+            "accountNo": "wj@qq.com",
+            "code": "A00018",
+            "dingTalkSwitch": true,
+            "dingTalkUserId": "1603867219357674",
+            "email": "wj@qq.com",
+            "headerImg": "https://thirdwx.qlogo.cn/mmopen/vi_32/Q0j4TwGTfTKby4UHU7oUtNhPArDbbGxiaYeMsQUOKFHbMPoGQZkISvujd7qK3J5oLlvRe8zSTTZhQ0PWKYFD8Bw/132",
+            "id": "18",
+            "name": "吴姜-wujiang",
+            "nameCn": "吴姜",
+            "nameEn": "wujiang",
+            "organizations": null,
+            "phoneNo": "17666131428",
+            "roles": null,
+            "status": "ENABLE",
+            "wechatNo": "吴姜"
+        }
+    },
+    "msg": "成功",
+    "success": true
+}</t>
+        </is>
+      </c>
+      <c r="N8" s="3" t="inlineStr">
+        <is>
+          <t>{
+    "code": "200",
+    "data": {
+        "token": "hiseaseyJhbGciOiJIUzUxMiJ9.eyJzYWx0IjoiMzU5M2MyNDUtZGJkNy00MjBiLTliMzgtZTIwNDM5YmUyMzBhIiwiY3JlYXRlZCI6MTY0MTQ1MDM1MTg0OCwiaWQiOjE4LCJleHAiOjE2NDE0NzE5NTF9.PZAFFAX0P7CNJMFdTO1Z_uwFEhOQ1RDPGi3daykTziROlR0laAtYKpU5C8wE2UksoLrjLHyMLePT7RzgPcUk6Q",
+        "userVO": {
+            "accountNo": "wj@qq.com",
+            "code": "A00018",
+            "dingTalkSwitch": true,
+            "dingTalkUserId": "1603867219357674",
+            "email": "wj@qq.com",
+            "headerImg": "https://thirdwx.qlogo.cn/mmopen/vi_32/Q0j4TwGTfTKby4UHU7oUtNhPArDbbGxiaYeMsQUOKFHbMPoGQZkISvujd7qK3J5oLlvRe8zSTTZhQ0PWKYFD8Bw/132",
+            "id": "18",
+            "name": "吴姜-wujiang",
+            "nameCn": "吴姜",
+            "nameEn": "wujiang",
+            "organizations": null,
+            "phoneNo": "17666131428",
+            "roles": null,
+            "status": "ENABLE",
+            "wechatNo": "吴姜"
+        }
+    },
+    "msg": "成功",
+    "success": true
+}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation sqref="C4 C5 C6 C2:C3" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"yes,no"</formula1>
-    </dataValidation>
     <dataValidation sqref="C1" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="custom">
       <formula1>"yes"</formula1>
     </dataValidation>
     <dataValidation sqref="J2" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"code,msg,json"</formula1>
     </dataValidation>
-    <dataValidation sqref="H4 H5 H6 H2:H3" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="C4 C5 C6 C7 C8 C2:C3" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"yes,no"</formula1>
+    </dataValidation>
+    <dataValidation sqref="H4 H5 H6 H7 H8 H2:H3" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"write_token,with_token"</formula1>
     </dataValidation>
   </dataValidations>

--- a/data/Test_case.xlsx
+++ b/data/Test_case.xlsx
@@ -28,6 +28,13 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -35,7 +42,30 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -50,27 +80,6 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color rgb="FF800080"/>
       <sz val="11"/>
       <u val="single"/>
@@ -79,7 +88,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -93,10 +102,9 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -104,6 +112,13 @@
       <charset val="0"/>
       <i val="1"/>
       <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -142,14 +157,6 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -162,13 +169,6 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -179,85 +179,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,97 +353,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,6 +384,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -412,6 +427,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -422,30 +446,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -478,145 +478,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1794,14 +1794,14 @@
     <dataValidation sqref="C1" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="custom">
       <formula1>"yes"</formula1>
     </dataValidation>
+    <dataValidation sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"code,msg,json"</formula1>
+    </dataValidation>
     <dataValidation sqref="C2 C3 C4 C5 C6 C7 C8 C9 C10" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"yes,no"</formula1>
     </dataValidation>
     <dataValidation sqref="H2 H3 H4 H5 H6 H7 H8 H9 H10" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"write_token,with_token,None"</formula1>
-    </dataValidation>
-    <dataValidation sqref="J2 J3 J4 J5 J6 J7 J8 J9 J10" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"code,msg,json"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1818,7 +1818,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="G2" s="0" t="inlineStr">
         <is>
-          <t>{"username":"wj@qq.com","password":"yx1234","remember":null}</t>
+          <t>{"username":"it@admin","password":"yx1234","remember":null}</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -1968,18 +1968,18 @@
           <t>{
     "code": "200",
     "data": {
-        "token": "hiseaseyJhbGciOiJIUzUxMiJ9.eyJzYWx0IjoiNzVmZDlmZDUtYzQwNi00YjY2LWI1NjItZThjM2YwNjE5NzY4IiwiY3JlYXRlZCI6MTY0MTQ1OTkyOTE2NywiaWQiOjE4LCJleHAiOjE2NDE0ODE1Mjl9.1kgc49UuXSH_dAznkMBFcY1xR1yVM5JglTsvlQjQeSzbgzCnRfM_yLfkcMyQfPp6vSsR5JhLE8DR4vf5pfWr0A",
+        "token": "hiseaseyJhbGciOiJIUzUxMiJ9.eyJzYWx0IjoiMzdmZWQyNDUtYzBkMy00ODlhLWE5MjEtZTEwMTZkZjQ2ZDMzIiwiY3JlYXRlZCI6MTY0MTUyODA1NzQ1NCwiaWQiOjEsImV4cCI6MTY0MTU0OTY1N30.qGXLKTsEEs6cPVn9rp7x_WIaSraqqO7q2OZXQwKnvArzdAXUC0pA0Sgg3JVSNzNebPr50BiAA9gYzjWswXy21Q",
         "userVO": {
-            "accountNo": "wj@qq.com",
-            "code": "A00018",
-            "dingTalkSwitch": true,
-            "dingTalkUserId": "1603867219357674",
-            "email": "wj@qq.com",
+            "accountNo": "it@admin",
+            "code": "A00030",
+            "dingTalkSwitch": false,
+            "dingTalkUserId": "",
+            "email": "dingtian@weihongtech.cn",
             "headerImg": "https://thirdwx.qlogo.cn/mmopen/vi_32/Q0j4TwGTfTKby4UHU7oUtNhPArDbbGxiaYeMsQUOKFHbMPoGQZkISvujd7qK3J5oLlvRe8zSTTZhQ0PWKYFD8Bw/132",
-            "id": "18",
-            "name": "吴姜-wujiang",
-            "nameCn": "吴姜",
-            "nameEn": "wujiang",
+            "id": "1",
+            "name": "管理员-admin",
+            "nameCn": "管理员",
+            "nameEn": "admin",
             "organizations": null,
             "phoneNo": "17666131428",
             "roles": null,
@@ -2049,10 +2049,10 @@
     "data": {
         "isDeleted": false,
         "name": "python.pdf",
-        "operator": "吴姜-wujiang",
-        "path": "upload/20220106/python.pdf",
-        "time": "2022-01-06 17:05:29",
-        "url": "https://yanxue-dev.oss-cn-chengdu.aliyuncs.com/upload/20220106/python.pdf"
+        "operator": "管理员-admin",
+        "path": "upload/20220107/python.pdf",
+        "time": "2022-01-07 12:00:57",
+        "url": "https://yanxue-dev.oss-cn-chengdu.aliyuncs.com/upload/20220107/python.pdf"
     },
     "msg": "成功",
     "success": true
@@ -2125,61 +2125,156 @@
             {
                 "auditStatus": "APPROVE",
                 "auditorName": "",
-                "cityName": "秦皇岛市",
-                "code": "SU000399",
+                "cityName": "成都市",
+                "code": "SU000825",
                 "countryName": "中国",
-                "creatorName": "吴姜-wujiang",
+                "creatorName": "寇思晴-Carrie",
                 "enableStatus": "ENABLE",
-                "name": "超艺科技有限公司",
-                "provinceName": "河北省",
-                "supplierId": "580",
+                "name": "速囤便利店",
+                "provinceName": "四川省",
+                "supplierId": "827",
                 "supplierResources": [
                     {
-                        "resourceId": "1359",
-                        "resourceType": "INSURANCE"
+                        "resourceId": "980",
+                        "resourceType": "MATERIAL"
                     }
                 ]
             },
             {
                 "auditStatus": "APPROVE",
                 "auditorName": "",
-                "cityName": "阳泉市",
-                "code": "SU000398",
+                "cityName": "成都市",
+                "code": "SU000824",
                 "countryName": "中国",
-                "creatorName": "吴姜-wujiang",
+                "creatorName": "余陈佳-Janet",
                 "enableStatus": "ENABLE",
-                "name": "为热刺",
-                "provinceName": "山西省",
-                "supplierId": "579",
+                "name": "成飞航空主题公园",
+                "provinceName": "四川省",
+                "supplierId": "826",
+                "supplierResources": [
+                    {
+                        "resourceId": "979",
+                        "resourceType": "BASE_CAMP_TICKET"
+                    }
+                ]
+            },
+            {
+                "auditStatus": "APPROVE",
+                "auditorName": "",
+                "cityName": "德阳市",
+                "code": "SU000823",
+                "countryName": "中国",
+                "creatorName": "余陈佳-Janet",
+                "enableStatus": "ENABLE",
+                "name": "三星堆青铜艺术坊",
+                "provinceName": "四川省",
+                "supplierId": "825",
+                "supplierResources": [
+                    {
+                        "resourceId": "978",
+                        "resourceType": "BASE_CAMP_TICKET"
+                    }
+                ]
+            },
+            {
+                "auditStatus": "APPROVE",
+                "auditorName": "",
+                "cityName": "遵义市",
+                "code": "SU000822",
+                "countryName": "中国",
+                "creatorName": "姚倩芸-Keira",
+                "enableStatus": "ENABLE",
+                "name": "赤水市鑫禄聚服务管理有限公司",
+                "provinceName": "贵州省",
+                "supplierId": "824",
                 "supplierResources": []
             },
             {
                 "auditStatus": "APPROVE",
                 "auditorName": "",
-                "cityName": "天津市",
-                "code": "SU000396",
+                "cityName": "周口市",
+                "code": "SU000821",
                 "countryName": "中国",
-                "creatorName": "吴姜-wujiang",
+                "creatorName": "施琳-Irene",
                 "enableStatus": "ENABLE",
-                "name": "23213",
-                "provinceName": "天津市",
-                "supplierId": "577",
-                "supplierResources": []
+                "name": "鹿邑县老子故里旅游开发有限公司",
+                "provinceName": "河南省",
+                "supplierId": "823",
+                "supplierResources": [
+                    {
+                        "resourceId": "977",
+                        "resourceType": "BASE_CAMP_TICKET"
+                    }
+                ]
             },
             {
                 "auditStatus": "APPROVE",
                 "auditorName": "",
-                "cityName": "天津市",
-                "code": "SU000395",
+                "cityName": "周口市",
+                "code": "SU000820",
                 "countryName": "中国",
-                "creatorName": "吴姜-wujiang",
+                "creatorName": "施琳-Irene",
                 "enableStatus": "ENABLE",
-                "name": "委屈翁群翁群二",
-                "provinceName": "天津市",
-                "supplierId": "576",
+                "name": "周口华威民俗文化博物苑",
+                "provinceName": "河南省",
+                "supplierId": "822",
                 "supplierResources": [
                     {
-                        "resourceId": "1741",
+                        "resourceId": "976",
+                        "resourceType": "BASE_CAMP_TICKET"
+                    }
+                ]
+            },
+            {
+                "auditStatus": "APPROVE",
+                "auditorName": "",
+                "cityName": "达州市",
+                "code": "SU000819",
+                "countryName": "中国",
+                "creatorName": "胡又园-Mia",
+                "enableStatus": "ENABLE",
+                "name": "张琪",
+                "provinceName": "四川省",
+                "supplierId": "821",
+                "supplierResources": [
+                    {
+                        "resourceId": "975",
+                        "resourceType": "WORKER"
+                    }
+                ]
+            },
+            {
+                "auditStatus": "APPROVE",
+                "auditorName": "",
+                "cityName": "成都市",
+                "code": "SU000818",
+                "countryName": "中国",
+                "creatorName": "兰玲-Cora",
+                "enableStatus": "ENABLE",
+                "name": "兰玲",
+                "provinceName": "四川省",
+                "supplierId": "820",
+                "supplierResources": [
+                    {
+                        "resourceId": "974",
+                        "resourceType": "WORKER"
+                    }
+                ]
+            },
+            {
+                "auditStatus": "APPROVE",
+                "auditorName": "",
+                "cityName": "成都市",
+                "code": "SU000817",
+                "countryName": "中国",
+                "creatorName": "寇思晴-Carrie",
+                "enableStatus": "ENABLE",
+                "name": "四川飞翔易座运输有限责任公司",
+                "provinceName": "四川省",
+                "supplierId": "819",
+                "supplierResources": [
+                    {
+                        "resourceId": "973",
                         "resourceType": "TRAFFIC_MODE"
                     }
                 ]
@@ -2187,84 +2282,19 @@
             {
                 "auditStatus": "APPROVE",
                 "auditorName": "",
-                "cityName": "天津市",
-                "code": "SU000394",
+                "cityName": "郑州市",
+                "code": "SU000816",
                 "countryName": "中国",
-                "creatorName": "吴姜-wujiang",
+                "creatorName": "尹飞雪-snow.yin",
                 "enableStatus": "ENABLE",
-                "name": "23123",
-                "provinceName": "天津市",
-                "supplierId": "575",
-                "supplierResources": []
-            },
-            {
-                "auditStatus": "APPROVE",
-                "auditorName": "",
-                "cityName": "天津市",
-                "code": "SU000393",
-                "countryName": "中国",
-                "creatorName": "吴姜-wujiang",
-                "enableStatus": "ENABLE",
-                "name": "测试银行账户的问题",
-                "provinceName": "天津市",
-                "supplierId": "574",
-                "supplierResources": []
-            },
-            {
-                "auditStatus": "APPROVE",
-                "auditorName": "",
-                "cityName": "市辖区",
-                "code": "SU000392",
-                "countryName": "中国",
-                "creatorName": "吴姜-wujiang",
-                "enableStatus": "ENABLE",
-                "name": "12121",
-                "provinceName": "北京市",
-                "supplierId": "573",
-                "supplierResources": []
-            },
-            {
-                "auditStatus": "APPROVE",
-                "auditorName": "",
-                "cityName": "市辖区",
-                "code": "SU000388",
-                "countryName": "中国",
-                "creatorName": "吴姜-wujiang",
-                "enableStatus": "ENABLE",
-                "name": "测试钉钉消息是否可以收到信息",
-                "provinceName": "北京市",
-                "supplierId": "569",
-                "supplierResources": []
-            },
-            {
-                "auditStatus": "APPROVE",
-                "auditorName": "",
-                "cityName": "市辖区",
-                "code": "SU000385",
-                "countryName": "中国",
-                "creatorName": "吴姜-wujiang",
-                "enableStatus": "ENABLE",
-                "name": "232134141",
-                "provinceName": "北京市",
-                "supplierId": "566",
-                "supplierResources": []
-            },
-            {
-                "auditStatus": "APPROVE",
-                "auditorName": "",
-                "cityName": "天津市",
-                "code": "SU000376",
-                "countryName": "中国",
-                "creatorName": "姜-jiang",
-                "enableStatus": "ENABLE",
-                "name": "无囊",
-                "provinceName": "天津市",
-                "supplierId": "550",
+                "name": "邓粟盈",
+                "provinceName": "河南省",
+                "supplierId": "818",
                 "supplierResources": []
             }
         ],
-        "total": "33",
-        "totalPage": "4"
+        "total": "769",
+        "totalPage": "77"
     },
     "msg": "成功",
     "success": true
@@ -2448,7 +2478,7 @@
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>{"name":"#faker.job#","description":"#sentence#"}</t>
+          <t>{"name":"faker.job","description":"faker.sentence"}</t>
         </is>
       </c>
       <c r="H7" s="1" t="inlineStr">
@@ -2471,16 +2501,16 @@
       </c>
       <c r="L7" s="0" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>pass</t>
         </is>
       </c>
       <c r="M7" s="0" t="inlineStr">
         <is>
           <t>{
-    "code": "400",
+    "code": "200",
     "data": null,
-    "msg": "已存在，不能添加！",
-    "success": false
+    "msg": "操作成功",
+    "success": true
 }</t>
         </is>
       </c>
@@ -2514,7 +2544,7 @@
       </c>
       <c r="G8" s="3" t="inlineStr">
         <is>
-          <t>{"name":"2323232","countryId":"1","address":"2312313","phoneNo":"2312313","email":"1@qq.com","category":"INTERNAL","settlementType":"PREPAY","prepayPercent":10,"payType":"BANK_TRANSFER","currencyId":"1",,"countryName":"中国","provinceId":"120000","provinceName":"天津市","cityId":"820003","cityName":"天津市"}</t>
+          <t>{"name":"faker.company","countryId":"1","address":"faker.address","phoneNo":"faker.phone","email":"faker.email","category":"INTERNAL","settlementType":"PREPAY","prepayPercent":10,"payType":"BANK_TRANSFER","currencyId":"1",,"countryName":"中国","provinceId":"120000","provinceName":"天津市","cityId":"820003","cityName":"天津市"}</t>
         </is>
       </c>
       <c r="H8" s="1" t="inlineStr">
@@ -2601,17 +2631,17 @@
     </row>
   </sheetData>
   <dataValidations count="4">
+    <dataValidation sqref="H4 H5 H6 H7 H8 H2:H3" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"write_token,with_token"</formula1>
+    </dataValidation>
     <dataValidation sqref="C1" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="custom">
       <formula1>"yes"</formula1>
-    </dataValidation>
-    <dataValidation sqref="J2" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"code,msg,json"</formula1>
     </dataValidation>
     <dataValidation sqref="C4 C5 C6 C7 C8 C2:C3" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"yes,no"</formula1>
     </dataValidation>
-    <dataValidation sqref="H4 H5 H6 H7 H8 H2:H3" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"write_token,with_token"</formula1>
+    <dataValidation sqref="J2" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"code,msg,json"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>

--- a/data/Test_case.xlsx
+++ b/data/Test_case.xlsx
@@ -35,7 +35,30 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -49,23 +72,22 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
       <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -80,6 +102,13 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF800080"/>
       <sz val="11"/>
       <u val="single"/>
@@ -87,24 +116,10 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -112,13 +127,6 @@
       <charset val="0"/>
       <i val="1"/>
       <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -142,7 +150,7 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -150,22 +158,14 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -179,37 +179,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -221,13 +335,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,126 +360,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,32 +373,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -414,6 +393,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -436,30 +445,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -470,6 +455,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -478,10 +478,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -490,133 +490,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1818,7 +1818,7 @@
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -1968,7 +1968,7 @@
           <t>{
     "code": "200",
     "data": {
-        "token": "hiseaseyJhbGciOiJIUzUxMiJ9.eyJzYWx0IjoiMzdmZWQyNDUtYzBkMy00ODlhLWE5MjEtZTEwMTZkZjQ2ZDMzIiwiY3JlYXRlZCI6MTY0MTUyODA1NzQ1NCwiaWQiOjEsImV4cCI6MTY0MTU0OTY1N30.qGXLKTsEEs6cPVn9rp7x_WIaSraqqO7q2OZXQwKnvArzdAXUC0pA0Sgg3JVSNzNebPr50BiAA9gYzjWswXy21Q",
+        "token": "hiseaseyJhbGciOiJIUzUxMiJ9.eyJzYWx0IjoiYTZiMzc4MDAtN2ZkZS00OTgyLWE3ODAtZTkzMWJlMzUxYjI3IiwiY3JlYXRlZCI6MTY0MTU0NDg5NDUzMywiaWQiOjEsImV4cCI6MTY0MTU2NjQ5NH0.DuBInvuRr_MYPLb8MHWZ_I6aJ5F1lkxmH_f__B60GZ_rqO5okcsmRPqxvLowmkwq8c3AYmCOeuwW98AG2aOEyA",
         "userVO": {
             "accountNo": "it@admin",
             "code": "A00030",
@@ -2051,7 +2051,7 @@
         "name": "python.pdf",
         "operator": "管理员-admin",
         "path": "upload/20220107/python.pdf",
-        "time": "2022-01-07 12:00:57",
+        "time": "2022-01-07 16:41:34",
         "url": "https://yanxue-dev.oss-cn-chengdu.aliyuncs.com/upload/20220107/python.pdf"
     },
     "msg": "成功",
@@ -2425,11 +2425,11 @@
         </is>
       </c>
       <c r="K6" s="0" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="L6" s="0" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="M6" s="3" t="inlineStr">
@@ -2631,9 +2631,6 @@
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation sqref="H4 H5 H6 H7 H8 H2:H3" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
-      <formula1>"write_token,with_token"</formula1>
-    </dataValidation>
     <dataValidation sqref="C1" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="custom">
       <formula1>"yes"</formula1>
     </dataValidation>
@@ -2643,6 +2640,9 @@
     <dataValidation sqref="J2" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
       <formula1>"code,msg,json"</formula1>
     </dataValidation>
+    <dataValidation sqref="H4 H5 H6 H7 H8 H2:H3" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"write_token,with_token"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E2" tooltip="https://fat-adm-api.local.hiseas.com/admin/api/auth/login" display="auth/login" r:id="rId1"/>

--- a/data/Test_case.xlsx
+++ b/data/Test_case.xlsx
@@ -1968,7 +1968,7 @@
           <t>{
     "code": "200",
     "data": {
-        "token": "hiseaseyJhbGciOiJIUzUxMiJ9.eyJzYWx0IjoiYTZiMzc4MDAtN2ZkZS00OTgyLWE3ODAtZTkzMWJlMzUxYjI3IiwiY3JlYXRlZCI6MTY0MTU0NDg5NDUzMywiaWQiOjEsImV4cCI6MTY0MTU2NjQ5NH0.DuBInvuRr_MYPLb8MHWZ_I6aJ5F1lkxmH_f__B60GZ_rqO5okcsmRPqxvLowmkwq8c3AYmCOeuwW98AG2aOEyA",
+        "token": "hiseaseyJhbGciOiJIUzUxMiJ9.eyJzYWx0IjoiMzYyNWM5NGUtZmY1YS00YmI0LTkyNzUtYjhiOGM4ODBmMGI4IiwiY3JlYXRlZCI6MTY0MTc4NDEyODcxNSwiaWQiOjEsImV4cCI6MTY0MTgwNTcyOH0.l0ZOVfTZ2VM1Mzsgj0zmwx_lNA6Hrd-b_c2H001B0t7pc4VlQNvlvzddWJcMs5dax7ZTZkbxUsS5Guy63mLsCg",
         "userVO": {
             "accountNo": "it@admin",
             "code": "A00030",
@@ -2050,9 +2050,9 @@
         "isDeleted": false,
         "name": "python.pdf",
         "operator": "管理员-admin",
-        "path": "upload/20220107/python.pdf",
-        "time": "2022-01-07 16:41:34",
-        "url": "https://yanxue-dev.oss-cn-chengdu.aliyuncs.com/upload/20220107/python.pdf"
+        "path": "upload/20220110/python.pdf",
+        "time": "2022-01-10 11:08:49",
+        "url": "https://yanxue-dev.oss-cn-chengdu.aliyuncs.com/upload/20220110/python.pdf"
     },
     "msg": "成功",
     "success": true
